--- a/simu.xlsx
+++ b/simu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCED1ACF-1586-3943-BB3C-14E1375247B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB0B2F9-5FB9-944A-9AD1-384250B5EB02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="2120" windowWidth="28240" windowHeight="17440" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="11020" yWindow="460" windowWidth="28240" windowHeight="17440" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>e(MeV)\z(um)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ß</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +404,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -432,16 +436,58 @@
       <c r="A2">
         <v>0.5</v>
       </c>
+      <c r="B2">
+        <v>50010</v>
+      </c>
+      <c r="C2">
+        <v>91509</v>
+      </c>
+      <c r="D2">
+        <v>99987</v>
+      </c>
+      <c r="E2">
+        <v>99991</v>
+      </c>
+      <c r="F2">
+        <v>99990</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>50139</v>
+      </c>
+      <c r="C3">
+        <v>65378</v>
+      </c>
+      <c r="D3">
+        <v>80816</v>
+      </c>
+      <c r="E3">
+        <v>95882</v>
+      </c>
+      <c r="F3">
+        <v>99966</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>41588</v>
+      </c>
+      <c r="C4">
+        <v>41886</v>
+      </c>
+      <c r="D4">
+        <v>41793</v>
+      </c>
+      <c r="E4">
+        <v>41671</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
@@ -456,6 +502,9 @@
     <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/simu.xlsx
+++ b/simu.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/QtWorkspeace/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB0B2F9-5FB9-944A-9AD1-384250B5EB02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1E8723-E729-C743-A627-36376D0EFFDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="460" windowWidth="28240" windowHeight="17440" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="9320" yWindow="1200" windowWidth="24360" windowHeight="16200" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$G$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$5:$G$5</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$2:$G$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$A$3:$G$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$A$4:$G$4</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$A$5:$G$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,13 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>e(MeV)\z(um)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ß</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,6 +108,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2763-CF43-9145-48DD8591B8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>91509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2763-CF43-9145-48DD8591B8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2763-CF43-9145-48DD8591B8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2763-CF43-9145-48DD8591B8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2763-CF43-9145-48DD8591B8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2095697407"/>
+        <c:axId val="2075635887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2095697407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075635887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2075635887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2095697407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EE4946-4E10-1A4D-8B0A-36781FEFFEDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5867F0A0-B8E4-AC41-BF76-AE698EDD2963}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -412,7 +1656,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,19 +1664,22 @@
         <v>19000</v>
       </c>
       <c r="C1">
+        <v>19002</v>
+      </c>
+      <c r="D1">
         <v>19005</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>19010</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>19015</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>19020</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -440,19 +1687,22 @@
         <v>50010</v>
       </c>
       <c r="C2">
+        <v>66647</v>
+      </c>
+      <c r="D2">
         <v>91509</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>99987</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>99991</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>99990</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -460,19 +1710,22 @@
         <v>50139</v>
       </c>
       <c r="C3">
+        <v>55971</v>
+      </c>
+      <c r="D3">
         <v>65378</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>80816</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>95882</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>99966</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -480,54 +1733,75 @@
         <v>41588</v>
       </c>
       <c r="C4">
+        <v>42122</v>
+      </c>
+      <c r="D4">
         <v>41886</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>41793</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>41671</v>
       </c>
+      <c r="G4">
+        <v>41804</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>21620</v>
+      </c>
+      <c r="C5">
+        <v>21936</v>
+      </c>
+      <c r="D5">
+        <v>21666</v>
+      </c>
+      <c r="E5">
+        <v>21969</v>
+      </c>
+      <c r="F5">
+        <v>21847</v>
+      </c>
+      <c r="G5">
+        <v>21807</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -535,5 +1809,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/simu.xlsx
+++ b/simu.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/QtWorkspeace/G4Simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1E8723-E729-C743-A627-36376D0EFFDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D59E3-2EB5-524B-9FF7-CC55567061DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="1200" windowWidth="24360" windowHeight="16200" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="-31060" yWindow="460" windowWidth="28040" windowHeight="20540" activeTab="2" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="D2rangeLISE" sheetId="4" r:id="rId2"/>
+    <sheet name="D3rangeLISE" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$5:$G$5</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$A$3:$G$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$A$4:$G$4</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$A$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">D3rangeLISE!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">D3rangeLISE!$A$2:$A$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">D3rangeLISE!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">D3rangeLISE!$B$2:$B$65</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">D3rangeLISE!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">D3rangeLISE!$A$2:$A$65</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">D3rangeLISE!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">D3rangeLISE!$B$2:$B$65</definedName>
+    <definedName name="rangd3" localSheetId="2">D3rangeLISE!$A$1:$B$65</definedName>
+    <definedName name="ranged2" localSheetId="1">D2rangeLISE!$A$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,11 +43,71 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{65515D2F-0745-8848-908D-478C09D54AF0}" name="rangd3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10008" sourceFile="/Users/yfs/rangd3.txt">
+      <textFields count="18">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{72F3C5AD-4235-C64E-BFAF-DC8300A7485E}" name="ranged2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10008" sourceFile="/Users/yfs/ranged2.txt">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="5">
   <si>
     <t>e(MeV)\z(um)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth (淀)</t>
+  </si>
+  <si>
+    <t>$22$Al: 0.5%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>$22$Al: 100.0%</t>
   </si>
 </sst>
 </file>
@@ -89,8 +153,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -189,10 +256,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -200,9 +267,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -210,10 +283,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>50010</c:v>
                 </c:pt>
@@ -221,9 +294,15 @@
                   <c:v>50139</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>50016</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>41588</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21620</c:v>
                 </c:pt>
               </c:numCache>
@@ -232,7 +311,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2763-CF43-9145-48DD8591B8D9}"/>
+              <c16:uniqueId val="{00000000-8131-164A-AE08-303D51C15CBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -265,10 +344,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -276,9 +355,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -286,21 +371,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>91509</c:v>
+                  <c:v>66647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65378</c:v>
+                  <c:v>55971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41886</c:v>
+                  <c:v>53571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21666</c:v>
+                  <c:v>42122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,7 +399,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2763-CF43-9145-48DD8591B8D9}"/>
+              <c16:uniqueId val="{00000002-8131-164A-AE08-303D51C15CBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -341,10 +432,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -352,9 +443,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -362,21 +459,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99987</c:v>
+                  <c:v>91509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80816</c:v>
+                  <c:v>65378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41793</c:v>
+                  <c:v>58356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21969</c:v>
+                  <c:v>41886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,7 +487,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2763-CF43-9145-48DD8591B8D9}"/>
+              <c16:uniqueId val="{00000003-8131-164A-AE08-303D51C15CBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -417,10 +520,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -428,9 +531,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -438,21 +547,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99991</c:v>
+                  <c:v>99987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95882</c:v>
+                  <c:v>80816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41671</c:v>
+                  <c:v>65162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21847</c:v>
+                  <c:v>41793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,7 +575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2763-CF43-9145-48DD8591B8D9}"/>
+              <c16:uniqueId val="{00000004-8131-164A-AE08-303D51C15CBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -493,10 +608,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -504,9 +619,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -514,21 +635,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99990</c:v>
+                  <c:v>99991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99966</c:v>
+                  <c:v>95882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41804</c:v>
+                  <c:v>65869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21807</c:v>
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +663,95 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2763-CF43-9145-48DD8591B8D9}"/>
+              <c16:uniqueId val="{00000005-8131-164A-AE08-303D51C15CBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8131-164A-AE08-303D51C15CBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -548,11 +763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095697407"/>
-        <c:axId val="2075635887"/>
+        <c:axId val="1942598079"/>
+        <c:axId val="2103407007"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095697407"/>
+        <c:axId val="1942598079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,12 +824,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075635887"/>
+        <c:crossAx val="2103407007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2075635887"/>
+        <c:axId val="2103407007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +886,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095697407"/>
+        <c:crossAx val="1942598079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -683,8 +898,58 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -698,7 +963,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -713,7 +978,1280 @@
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>D2rangeLISE!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$22$Al: 0.5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D2rangeLISE!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62493799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2498750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8748119999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4997500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1246879999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.749625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3745630000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9995000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6244370000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2493749999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8743119999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.49925</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1241869999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7491249999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3740620000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.623937</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.248875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.873811999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.498749999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.123687</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.748625000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.373562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.9985</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.623436999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.248374999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.873311999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.498249999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.123187999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.748125000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.373062999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.622938000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.247875000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.872813000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.49775</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.122688</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.747624999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.372563</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.997499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.622437999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.247375000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.872312999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.497250000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.122188000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.747125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.372063000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.621938</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.246874999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.871813</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.496749999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.121687999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.746625000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.371563000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34.996499999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35.621437999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.246375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.871313000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37.496250000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38.121187999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38.746124999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.371062999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D2rangeLISE!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>1.2606799999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>1.9411399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>2.94171E-5</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>4.3898299999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>6.4531900000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>9.4198500000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3583700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.92695E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6895400000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.68761E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9657800000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.58072E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.5999500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.11488E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4319599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8234200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.3066499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8971299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6044800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.4416400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.4241200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.5834600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.9275700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.4722999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.12374E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.32371E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5465E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7917200000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E21-B54D-8BAC-2E7B5C0527E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="7403168"/>
+        <c:axId val="338800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="7403168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7403168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>D3rangeLISE!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$22$Al: 100.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D3rangeLISE!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7495250000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4990500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.248575000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.998100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.747624999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.497150000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.246675000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.996200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.745725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.495249999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.244774999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.994300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.743825000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.493350000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.242874999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.992400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.741924999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.49145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.240975000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.990499999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.740025000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.48954999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109.239075</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113.98860000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>118.738125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.48765</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>128.23717500000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132.98670000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>137.73622499999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>142.48575</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147.235275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>151.98480000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>156.73432500000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>161.48384999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166.233375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>170.9829</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>175.73242500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180.48195000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>185.23147499999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>189.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>194.730525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>199.48005000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>204.22957500000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>208.97909999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>213.72862499999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>218.47815</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>223.227675</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>227.97720000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>232.72672499999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>237.47624999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>242.225775</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>246.9753</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>251.72482500000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>256.47435000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>261.22387500000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>265.97340000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>270.72292499999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>275.47244999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>280.22197499999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>284.97149999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>289.721025</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>294.47055</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>299.22007500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D3rangeLISE!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1.5299800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9590700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.138021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13996400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12914700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12497800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12168900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.118883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.116371</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.114409</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.111737</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.109553</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10879900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.108303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.107699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.107184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10600800000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.105866</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.107143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.105543</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3028299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.7993899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9479399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8051500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6462099999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4636199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F25-374B-9746-6D97C02204B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2623952"/>
+        <c:axId val="2930352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2623952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2930352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2930352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2623952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -791,6 +2329,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1307,27 +2925,1059 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174624</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EE4946-4E10-1A4D-8B0A-36781FEFFEDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90BE7E9-F7B0-A043-9C79-3F5963438433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,6 +3996,96 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CDD565-A772-0C41-A524-5086107A2418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF2DD46-AB18-2642-9AA3-EEA687B8A2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ranged2" connectionId="2" xr16:uid="{3033E671-0443-8246-A5A2-A9F155E3B5D9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rangd3" connectionId="1" xr16:uid="{9D64EDC7-59A3-5047-8F40-CB0AA08A178C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1645,10 +4385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5867F0A0-B8E4-AC41-BF76-AE698EDD2963}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1727,83 +4467,1211 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B4">
-        <v>41588</v>
+        <v>50016</v>
       </c>
       <c r="C4">
-        <v>42122</v>
+        <v>53571</v>
       </c>
       <c r="D4">
-        <v>41886</v>
+        <v>58356</v>
       </c>
       <c r="E4">
-        <v>41793</v>
+        <v>65162</v>
       </c>
       <c r="F4">
-        <v>41671</v>
+        <v>65869</v>
       </c>
       <c r="G4">
-        <v>41804</v>
+        <v>65795</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>21620</v>
+        <v>41588</v>
       </c>
       <c r="C5">
-        <v>21936</v>
+        <v>42122</v>
       </c>
       <c r="D5">
-        <v>21666</v>
+        <v>41886</v>
       </c>
       <c r="E5">
-        <v>21969</v>
+        <v>41793</v>
       </c>
       <c r="F5">
-        <v>21847</v>
+        <v>41671</v>
       </c>
       <c r="G5">
-        <v>21807</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>4</v>
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>28960</v>
+      </c>
+      <c r="C6">
+        <v>29465</v>
+      </c>
+      <c r="D6">
+        <v>29118</v>
+      </c>
+      <c r="E6">
+        <v>29132</v>
+      </c>
+      <c r="F6">
+        <v>29284</v>
+      </c>
+      <c r="G6">
+        <v>29125</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>21620</v>
+      </c>
+      <c r="C7">
+        <v>21936</v>
+      </c>
+      <c r="D7">
+        <v>21666</v>
+      </c>
+      <c r="E7">
+        <v>21969</v>
+      </c>
+      <c r="F7">
+        <v>21847</v>
+      </c>
+      <c r="G7">
+        <v>21807</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBF3CCF-5E11-9B4D-8123-0A17D22F1E82}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0.62493799999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1.2498750000000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1.8748119999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2.4997500000000001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3.1246879999999999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3.749625</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4.3745630000000002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>4.9995000000000003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>5.6244370000000004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>6.2493749999999997</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>6.8743119999999998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>7.49925</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>8.1241869999999992</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>8.7491249999999994</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>9.3740620000000003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>10.623937</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>11.248875</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>11.873811999999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>12.498749999999999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>13.123687</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>13.748625000000001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>14.373562</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>14.9985</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>15.623436999999999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>16.248374999999999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>16.873311999999999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>17.498249999999999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>18.123187999999999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>18.748125000000002</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>19.373062999999998</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>19.998000000000001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>20.622938000000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>21.247875000000001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>21.872813000000001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>22.49775</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.2606799999999999E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>23.122688</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.9411399999999998E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>23.747624999999999</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.94171E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>24.372563</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.3898299999999999E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>24.997499999999999</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6.4531900000000005E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>25.622437999999999</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9.4198500000000003E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>26.247375000000002</v>
+      </c>
+      <c r="B44">
+        <v>1.3583700000000001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>26.872312999999998</v>
+      </c>
+      <c r="B45">
+        <v>1.92695E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>27.497250000000001</v>
+      </c>
+      <c r="B46">
+        <v>2.6895400000000001E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>28.122188000000001</v>
+      </c>
+      <c r="B47">
+        <v>3.68761E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>28.747125</v>
+      </c>
+      <c r="B48">
+        <v>4.9657800000000002E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>29.372063000000001</v>
+      </c>
+      <c r="B49">
+        <v>6.58072E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>29.997</v>
+      </c>
+      <c r="B50">
+        <v>8.5999500000000001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>30.621938</v>
+      </c>
+      <c r="B51">
+        <v>1.11488E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>31.246874999999999</v>
+      </c>
+      <c r="B52">
+        <v>1.4319599999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>31.871813</v>
+      </c>
+      <c r="B53">
+        <v>1.8234200000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>32.496749999999999</v>
+      </c>
+      <c r="B54">
+        <v>2.3066499999999999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>33.121687999999999</v>
+      </c>
+      <c r="B55">
+        <v>2.8971299999999999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>33.746625000000002</v>
+      </c>
+      <c r="B56">
+        <v>3.6044800000000002E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>34.371563000000002</v>
+      </c>
+      <c r="B57">
+        <v>4.4416400000000002E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>34.996499999999997</v>
+      </c>
+      <c r="B58">
+        <v>5.4241200000000002E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>35.621437999999998</v>
+      </c>
+      <c r="B59">
+        <v>6.5834600000000002E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>36.246375</v>
+      </c>
+      <c r="B60">
+        <v>7.9275700000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>36.871313000000001</v>
+      </c>
+      <c r="B61">
+        <v>9.4722999999999995E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>37.496250000000003</v>
+      </c>
+      <c r="B62">
+        <v>1.12374E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>38.121187999999997</v>
+      </c>
+      <c r="B63">
+        <v>1.32371E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>38.746124999999999</v>
+      </c>
+      <c r="B64">
+        <v>1.5465E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>39.371062999999999</v>
+      </c>
+      <c r="B65">
+        <v>1.7917200000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8602E299-E2BC-0C47-B9CF-564DC00D4155}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.5299800000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4.7495250000000002</v>
+      </c>
+      <c r="B3">
+        <v>4.9590700000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>9.4990500000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.108407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>14.248575000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.138021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>18.998100000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.13996400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>23.747624999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.13417999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>28.497150000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.12914700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>33.246675000000003</v>
+      </c>
+      <c r="B9">
+        <v>0.12497800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>37.996200000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.12168900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>42.745725</v>
+      </c>
+      <c r="B11">
+        <v>0.118883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>47.495249999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.116371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>52.244774999999997</v>
+      </c>
+      <c r="B13">
+        <v>0.114409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>56.994300000000003</v>
+      </c>
+      <c r="B14">
+        <v>0.11291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>61.743825000000001</v>
+      </c>
+      <c r="B15">
+        <v>0.111737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>66.493350000000007</v>
+      </c>
+      <c r="B16">
+        <v>0.11065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>71.242874999999998</v>
+      </c>
+      <c r="B17">
+        <v>0.109553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>75.992400000000004</v>
+      </c>
+      <c r="B18">
+        <v>0.10879900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>80.741924999999995</v>
+      </c>
+      <c r="B19">
+        <v>0.108303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>85.49145</v>
+      </c>
+      <c r="B20">
+        <v>0.107699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>90.240975000000006</v>
+      </c>
+      <c r="B21">
+        <v>0.107184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>94.990499999999997</v>
+      </c>
+      <c r="B22">
+        <v>0.10704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>99.740025000000003</v>
+      </c>
+      <c r="B23">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>104.48954999999999</v>
+      </c>
+      <c r="B24">
+        <v>0.10600800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>109.239075</v>
+      </c>
+      <c r="B25">
+        <v>0.105866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>113.98860000000001</v>
+      </c>
+      <c r="B26">
+        <v>0.107143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>118.738125</v>
+      </c>
+      <c r="B27">
+        <v>0.105543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>123.48765</v>
+      </c>
+      <c r="B28">
+        <v>9.3028299999999994E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>128.23717500000001</v>
+      </c>
+      <c r="B29">
+        <v>6.7993899999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>132.98670000000001</v>
+      </c>
+      <c r="B30">
+        <v>3.9479399999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>137.73622499999999</v>
+      </c>
+      <c r="B31">
+        <v>1.8051500000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>142.48575</v>
+      </c>
+      <c r="B32">
+        <v>6.6462099999999996E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>147.235275</v>
+      </c>
+      <c r="B33">
+        <v>1.4636199999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>151.98480000000001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>156.73432500000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>161.48384999999999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>166.233375</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>170.9829</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>175.73242500000001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>180.48195000000001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>185.23147499999999</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>189.98099999999999</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>194.730525</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>199.48005000000001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>204.22957500000001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>208.97909999999999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>213.72862499999999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>218.47815</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>223.227675</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>227.97720000000001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>232.72672499999999</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>237.47624999999999</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>242.225775</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>246.9753</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>251.72482500000001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>256.47435000000002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>261.22387500000002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>265.97340000000003</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>270.72292499999998</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>275.47244999999998</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>280.22197499999999</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>284.97149999999999</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>289.721025</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>294.47055</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>299.22007500000001</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/simu.xlsx
+++ b/simu.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62306FFD-46A4-0241-B64F-779FEBCA3CCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6907AB-9399-124A-9E0D-521261D773F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="34100" windowHeight="20540" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="900" yWindow="1300" windowWidth="33140" windowHeight="19900" activeTab="1" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="D2rangeLISE" sheetId="4" r:id="rId2"/>
-    <sheet name="D3rangeLISE" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId5"/>
-    <sheet name="dssd3 qq" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId2"/>
+    <sheet name="D2rangeLISE" sheetId="4" r:id="rId3"/>
+    <sheet name="D3rangeLISE" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId6"/>
+    <sheet name="dssd3 qq" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="rang3" localSheetId="4">Sheet3!$A$1:$AE$65</definedName>
-    <definedName name="rang4" localSheetId="5">'dssd3 qq'!$A$1:$K$65</definedName>
-    <definedName name="rangd3" localSheetId="2">D3rangeLISE!$A$1:$B$65</definedName>
-    <definedName name="ranged2" localSheetId="1">D2rangeLISE!$A$1:$B$65</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet4!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet4!$B$2:$B$8</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet4!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet4!$B$2:$B$8</definedName>
+    <definedName name="rang3" localSheetId="5">Sheet3!$A$1:$AE$65</definedName>
+    <definedName name="rang4" localSheetId="6">'dssd3 qq'!$A$1:$K$65</definedName>
+    <definedName name="rangd3" localSheetId="3">D3rangeLISE!$A$1:$B$65</definedName>
+    <definedName name="ranged2" localSheetId="2">D2rangeLISE!$A$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1386,6 +1387,913 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>49791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>99942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>93193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>99916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3">
+                  <c:v>90141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3">
+                  <c:v>96676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5BDD-274B-8EB5-CEFFCC7F5585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="8212384"/>
+        <c:axId val="58907232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="8212384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58907232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58907232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8212384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>D2rangeLISE!$B$1</c:f>
@@ -2054,7 +2962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2549,7 +3457,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3226,7 +4134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3876,7 +4784,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6066,6 +6974,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8686,6 +9634,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9246,6 +10710,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317498</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAEB411-DE2A-624C-8FE2-B25426428D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -9319,7 +10824,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9360,7 +10865,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9401,7 +10906,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9757,8 +11262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5867F0A0-B8E4-AC41-BF76-AE698EDD2963}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10097,6 +11602,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F3215F-9074-3F44-90CD-3953359D4265}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1">
+        <v>38000</v>
+      </c>
+      <c r="C1">
+        <v>38020</v>
+      </c>
+      <c r="D1">
+        <v>38040</v>
+      </c>
+      <c r="E1">
+        <v>38060</v>
+      </c>
+      <c r="F1">
+        <v>38080</v>
+      </c>
+      <c r="G1">
+        <v>38100</v>
+      </c>
+      <c r="H1">
+        <v>38120</v>
+      </c>
+      <c r="I1">
+        <v>38140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>49791</v>
+      </c>
+      <c r="C2">
+        <v>99950</v>
+      </c>
+      <c r="D2">
+        <v>99965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>49798</v>
+      </c>
+      <c r="C3">
+        <v>70845</v>
+      </c>
+      <c r="D3">
+        <v>91714</v>
+      </c>
+      <c r="E3">
+        <v>99942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50003</v>
+      </c>
+      <c r="C4">
+        <v>60453</v>
+      </c>
+      <c r="D4">
+        <v>71327</v>
+      </c>
+      <c r="E4">
+        <v>82313</v>
+      </c>
+      <c r="F4">
+        <v>93193</v>
+      </c>
+      <c r="G4">
+        <v>99916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>49857</v>
+      </c>
+      <c r="C5">
+        <v>56631</v>
+      </c>
+      <c r="D5">
+        <v>63329</v>
+      </c>
+      <c r="E5">
+        <v>70030</v>
+      </c>
+      <c r="F5">
+        <v>76701</v>
+      </c>
+      <c r="G5">
+        <v>83494</v>
+      </c>
+      <c r="H5">
+        <v>90141</v>
+      </c>
+      <c r="I5">
+        <v>96676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>49544</v>
+      </c>
+      <c r="C6">
+        <v>54456</v>
+      </c>
+      <c r="D6">
+        <v>58636</v>
+      </c>
+      <c r="E6">
+        <v>63576</v>
+      </c>
+      <c r="F6">
+        <v>68150</v>
+      </c>
+      <c r="G6">
+        <v>69782</v>
+      </c>
+      <c r="H6">
+        <v>69774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>49144</v>
+      </c>
+      <c r="C7">
+        <v>50829</v>
+      </c>
+      <c r="D7">
+        <v>50711</v>
+      </c>
+      <c r="E7">
+        <v>50657</v>
+      </c>
+      <c r="F7">
+        <v>50919</v>
+      </c>
+      <c r="G7">
+        <v>50576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>37859</v>
+      </c>
+      <c r="C8">
+        <v>37868</v>
+      </c>
+      <c r="D8">
+        <v>37821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBF3CCF-5E11-9B4D-8123-0A17D22F1E82}">
   <dimension ref="A1:B65"/>
   <sheetViews>
@@ -10637,7 +12336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8602E299-E2BC-0C47-B9CF-564DC00D4155}">
   <dimension ref="A1:B65"/>
   <sheetViews>
@@ -11178,7 +12877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F85B42-2B4D-954F-8745-2807E3662623}">
   <dimension ref="A1:B59"/>
   <sheetViews>
@@ -11667,7 +13366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4EA55-118E-3F47-A701-CE00530C69B6}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
@@ -17889,7 +19588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE2F76-9D1A-5B41-A705-5B92C35BCD23}">
   <dimension ref="A1:K65"/>
   <sheetViews>

--- a/simu.xlsx
+++ b/simu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEA31FE-D032-1746-87F6-E4E036E858CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE3C5C-40D9-1A46-BB07-205615C4F2D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="33140" windowHeight="19900" activeTab="4" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="-35780" yWindow="460" windowWidth="33140" windowHeight="19900" activeTab="4" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="中间40umSi抽样注入效率分布" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,6 @@
     <sheet name="dssd3 qq" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">对比!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">对比!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">对比!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">对比!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">对比!$A$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">对比!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">对比!$B$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">对比!$B$2:$B$12</definedName>
     <definedName name="rang3" localSheetId="8">Sheet3!$A$1:$AE$65</definedName>
     <definedName name="rang4" localSheetId="9">'dssd3 qq'!$A$1:$K$65</definedName>
     <definedName name="rangd3" localSheetId="6">D3rangeLISE!$A$1:$B$65</definedName>
@@ -155,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="56">
   <si>
     <t>Depth (淀)</t>
   </si>
@@ -332,6 +324,10 @@
   </si>
   <si>
     <t>304um</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E(MeV)/Z(um)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3745,6 +3741,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99972</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>99942</c:v>
                 </c:pt>
@@ -3759,6 +3758,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,6 +3835,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99948</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>93193</c:v>
                 </c:pt>
@@ -3844,6 +3852,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3918,6 +3929,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99947</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>99916</c:v>
                 </c:pt>
@@ -3929,6 +3946,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4009,11 +4029,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99921</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>90141</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>69774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50530</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,8 +4099,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99922</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>96676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13584,15 +13637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>122767</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>258234</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>220135</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:colOff>355602</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14259,7 +14312,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14269,7 +14322,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -14541,6 +14594,32 @@
       </c>
       <c r="G12">
         <v>3823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12)</f>
+        <v>50010,50139,50016,41588,28960,21620,13149,8736,6251,4576,3426</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:G13" si="0">_xlfn.CONCAT(C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8,",",C9,",",C10,",",C11,",",C12)</f>
+        <v>66647,55971,53571,42122,29465,21936,13653,9328,6816,4949,3722</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>91509,65378,58356,41886,29118,21666,13573,9425,6821,5017,3832</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>99987,80816,65162,41793,29132,21969,13455,9338,6736,4994,3835</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>99991,95882,65869,41671,29284,21847,13295,9264,6895,5018,3874</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>99990,99966,65795,41804,29125,21807,13324,9394,6791,5082,3823</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -14593,6 +14672,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -16906,7 +16986,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16950,6 +17030,21 @@
       <c r="D2">
         <v>99965</v>
       </c>
+      <c r="E2">
+        <v>99972</v>
+      </c>
+      <c r="F2">
+        <v>99972</v>
+      </c>
+      <c r="G2">
+        <v>99975</v>
+      </c>
+      <c r="H2">
+        <v>99975</v>
+      </c>
+      <c r="I2">
+        <v>99974</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
@@ -16966,6 +17061,18 @@
       </c>
       <c r="E3">
         <v>99942</v>
+      </c>
+      <c r="F3">
+        <v>99948</v>
+      </c>
+      <c r="G3">
+        <v>99947</v>
+      </c>
+      <c r="H3">
+        <v>99950</v>
+      </c>
+      <c r="I3">
+        <v>99951</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -16990,6 +17097,12 @@
       <c r="G4">
         <v>99916</v>
       </c>
+      <c r="H4">
+        <v>99921</v>
+      </c>
+      <c r="I4">
+        <v>99922</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
@@ -17045,6 +17158,9 @@
       <c r="H6">
         <v>69774</v>
       </c>
+      <c r="I6">
+        <v>69604</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
@@ -17068,6 +17184,12 @@
       <c r="G7">
         <v>50576</v>
       </c>
+      <c r="H7">
+        <v>50530</v>
+      </c>
+      <c r="I7">
+        <v>50617</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
@@ -17082,10 +17204,54 @@
       <c r="D8">
         <v>37821</v>
       </c>
+      <c r="E8">
+        <v>37947</v>
+      </c>
+      <c r="F8">
+        <v>38067</v>
+      </c>
+      <c r="G8">
+        <v>37877</v>
+      </c>
+      <c r="H8">
+        <v>37647</v>
+      </c>
+      <c r="I8">
+        <v>37919</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT(B1,",",B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8)</f>
+        <v>38000,49791,49798,50003,49857,49544,49144,37859</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:I9" si="0">_xlfn.CONCAT(C1,",",C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8)</f>
+        <v>38020,99950,70845,60453,56631,54456,50829,37868</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>38040,99965,91714,71327,63329,58636,50711,37821</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>38060,99972,99942,82313,70030,63576,50657,37947</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>38080,99972,99948,93193,76701,68150,50919,38067</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>38100,99975,99947,99916,83494,69782,50576,37877</v>
+      </c>
+      <c r="H9" t="str">
+        <f>_xlfn.CONCAT(H1,",",H2,",",H3,",",H4,",",H5,",",H6,",",H7,",",H8)</f>
+        <v>38120,99975,99950,99921,90141,69774,50530,37647</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>38140,99974,99951,99922,96676,69604,50617,37919</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -17177,6 +17343,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17409,10 +17576,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33FCB25-61C9-F947-9ECB-36E936977C04}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17549,9 +17716,20 @@
         <v>28998</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12)</f>
+        <v>86465,75514,60182,41823,29364,21439,13347,9241,6590,4904,3746</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.CONCAT(C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8,",",C9,",",C10,",",C11,",",C12)</f>
+        <v>90177,79094,70663,65179,61319,58781,55795,53559,50317,38164,28998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/simu.xlsx
+++ b/simu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE3C5C-40D9-1A46-BB07-205615C4F2D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E10BE0-A1DE-9B4E-8985-3F09036B62B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35780" yWindow="460" windowWidth="33140" windowHeight="19900" activeTab="4" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33140" windowHeight="19900" activeTab="5" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="中间40umSi抽样注入效率分布" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="中间40umSi实验注入效率分布" sheetId="13" r:id="rId3"/>
     <sheet name="后300umSi实验注入效率分布" sheetId="14" r:id="rId4"/>
     <sheet name="对比" sheetId="15" r:id="rId5"/>
-    <sheet name="D2rangeLISE" sheetId="4" r:id="rId6"/>
-    <sheet name="D3rangeLISE" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
-    <sheet name="dssd3 qq" sheetId="11" r:id="rId10"/>
+    <sheet name="SD 效率" sheetId="16" r:id="rId6"/>
+    <sheet name="D2rangeLISE" sheetId="4" r:id="rId7"/>
+    <sheet name="D3rangeLISE" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="dssd3 qq" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="rang3" localSheetId="8">Sheet3!$A$1:$AE$65</definedName>
-    <definedName name="rang4" localSheetId="9">'dssd3 qq'!$A$1:$K$65</definedName>
-    <definedName name="rangd3" localSheetId="6">D3rangeLISE!$A$1:$B$65</definedName>
-    <definedName name="ranged2" localSheetId="5">D2rangeLISE!$A$1:$B$65</definedName>
+    <definedName name="rang3" localSheetId="9">Sheet3!$A$1:$AE$65</definedName>
+    <definedName name="rang4" localSheetId="10">'dssd3 qq'!$A$1:$K$65</definedName>
+    <definedName name="rangd3" localSheetId="7">D3rangeLISE!$A$1:$B$65</definedName>
+    <definedName name="ranged2" localSheetId="6">D2rangeLISE!$A$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="65">
   <si>
     <t>Depth (淀)</t>
   </si>
@@ -328,6 +329,42 @@
   </si>
   <si>
     <t>E(MeV)/Z(um)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40um de[1]=E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40um de[0]+de[1]=E de[0]&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304um de[2]=E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304um de[1]+de[2]=E de</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40um de[1]+de[2]=E de[2]&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142um部分穿透(9491)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142um部分穿透(15336)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142um部分穿透(17610) 304um部分穿透(7668)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142um部分穿透(17918) 304um部分穿透(13569)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14678,4634 +14715,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE2F76-9D1A-5B41-A705-5B92C35BCD23}">
-  <dimension ref="A1:K65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>19.465900000000001</v>
-      </c>
-      <c r="D2">
-        <v>26.186199999999999</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0.26555099999999998</v>
-      </c>
-      <c r="G2">
-        <v>7.1443599999999998</v>
-      </c>
-      <c r="H2">
-        <v>0.91435500000000003</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0.18302199999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>0.62493799999999999</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>22.0305</v>
-      </c>
-      <c r="D3">
-        <v>30.458500000000001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.32755299999999998</v>
-      </c>
-      <c r="G3">
-        <v>9.1340900000000005</v>
-      </c>
-      <c r="H3">
-        <v>1.0723</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0.23061499999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1.2498750000000001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>24.595099999999999</v>
-      </c>
-      <c r="D4">
-        <v>34.730800000000002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.38955499999999998</v>
-      </c>
-      <c r="G4">
-        <v>11.123799999999999</v>
-      </c>
-      <c r="H4">
-        <v>1.2302500000000001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0.36317700000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>1.8748119999999999</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>27.1632</v>
-      </c>
-      <c r="D5">
-        <v>38.947299999999998</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.47370899999999999</v>
-      </c>
-      <c r="G5">
-        <v>15.8523</v>
-      </c>
-      <c r="H5">
-        <v>1.3729899999999999</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0.57785600000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>2.4997500000000001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>29.731400000000001</v>
-      </c>
-      <c r="D6">
-        <v>43.163699999999999</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.557867</v>
-      </c>
-      <c r="G6">
-        <v>20.581299999999999</v>
-      </c>
-      <c r="H6">
-        <v>1.51573</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0.75995100000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>3.1246879999999999</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>32.058500000000002</v>
-      </c>
-      <c r="D7">
-        <v>46.615000000000002</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.668875</v>
-      </c>
-      <c r="G7">
-        <v>20.3748</v>
-      </c>
-      <c r="H7">
-        <v>1.6097300000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>7.5475999999999994E-5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0.83035499999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>3.749625</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>34.3855</v>
-      </c>
-      <c r="D8">
-        <v>50.066000000000003</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.77989299999999995</v>
-      </c>
-      <c r="G8">
-        <v>20.1663</v>
-      </c>
-      <c r="H8">
-        <v>1.7037</v>
-      </c>
-      <c r="I8">
-        <v>1.21828E-4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0.82388300000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>4.3745630000000002</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>36.101999999999997</v>
-      </c>
-      <c r="D9">
-        <v>52.264499999999998</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.92218199999999995</v>
-      </c>
-      <c r="G9">
-        <v>20.084099999999999</v>
-      </c>
-      <c r="H9">
-        <v>1.70214</v>
-      </c>
-      <c r="I9">
-        <v>1.84876E-4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0.80240699999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>4.9995000000000003</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>37.818100000000001</v>
-      </c>
-      <c r="D10">
-        <v>54.462299999999999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1.0644899999999999</v>
-      </c>
-      <c r="G10">
-        <v>20.001999999999999</v>
-      </c>
-      <c r="H10">
-        <v>1.7005300000000001</v>
-      </c>
-      <c r="I10">
-        <v>2.8183400000000001E-4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0.774057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>5.6244370000000004</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>38.706200000000003</v>
-      </c>
-      <c r="D11">
-        <v>55.600099999999998</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1.24448</v>
-      </c>
-      <c r="G11">
-        <v>19.902100000000001</v>
-      </c>
-      <c r="H11">
-        <v>1.6591100000000001</v>
-      </c>
-      <c r="I11">
-        <v>4.24888E-4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0.73296099999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>6.2493749999999997</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>39.593699999999998</v>
-      </c>
-      <c r="D12">
-        <v>56.737000000000002</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1.42449</v>
-      </c>
-      <c r="G12">
-        <v>19.802099999999999</v>
-      </c>
-      <c r="H12">
-        <v>1.6176600000000001</v>
-      </c>
-      <c r="I12">
-        <v>6.1780799999999996E-4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0.67209700000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>6.8743119999999998</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>39.974600000000002</v>
-      </c>
-      <c r="D13">
-        <v>56.545200000000001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1.6433899999999999</v>
-      </c>
-      <c r="G13">
-        <v>19.588699999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.60002</v>
-      </c>
-      <c r="I13">
-        <v>9.1924800000000001E-4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>0.60321199999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>7.49925</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>40.354900000000001</v>
-      </c>
-      <c r="D14">
-        <v>56.351999999999997</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1.86233</v>
-      </c>
-      <c r="G14">
-        <v>19.3752</v>
-      </c>
-      <c r="H14">
-        <v>1.5824100000000001</v>
-      </c>
-      <c r="I14">
-        <v>1.2842000000000001E-3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>0.52593999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>8.1241869999999992</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>40.4818</v>
-      </c>
-      <c r="D15">
-        <v>55.866799999999998</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2.1115499999999998</v>
-      </c>
-      <c r="G15">
-        <v>19.036100000000001</v>
-      </c>
-      <c r="H15">
-        <v>1.5682</v>
-      </c>
-      <c r="I15">
-        <v>1.87568E-3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0.44770900000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>8.7491249999999994</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>40.608400000000003</v>
-      </c>
-      <c r="D16">
-        <v>55.381300000000003</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2.3608099999999999</v>
-      </c>
-      <c r="G16">
-        <v>18.696899999999999</v>
-      </c>
-      <c r="H16">
-        <v>1.55399</v>
-      </c>
-      <c r="I16">
-        <v>2.5305700000000002E-3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>0.37168099999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>9.3740620000000003</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>40.248899999999999</v>
-      </c>
-      <c r="D17">
-        <v>54.754100000000001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2.62026</v>
-      </c>
-      <c r="G17">
-        <v>18.235099999999999</v>
-      </c>
-      <c r="H17">
-        <v>1.5384899999999999</v>
-      </c>
-      <c r="I17">
-        <v>3.6067199999999999E-3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>0.30096899999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>9.9990000000000006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>39.8887</v>
-      </c>
-      <c r="D18">
-        <v>54.1267</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2.8797199999999998</v>
-      </c>
-      <c r="G18">
-        <v>17.773199999999999</v>
-      </c>
-      <c r="H18">
-        <v>1.52298</v>
-      </c>
-      <c r="I18">
-        <v>4.7692699999999999E-3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>0.23849799999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>10.623937</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>39.328499999999998</v>
-      </c>
-      <c r="D19">
-        <v>53.416200000000003</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>3.12392</v>
-      </c>
-      <c r="G19">
-        <v>17.2118</v>
-      </c>
-      <c r="H19">
-        <v>1.5055099999999999</v>
-      </c>
-      <c r="I19">
-        <v>6.5521700000000004E-3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>0.18526699999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>11.248875</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>38.767899999999997</v>
-      </c>
-      <c r="D20">
-        <v>52.705500000000001</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>3.3681100000000002</v>
-      </c>
-      <c r="G20">
-        <v>16.650300000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.4880500000000001</v>
-      </c>
-      <c r="I20">
-        <v>8.5611699999999999E-3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0.14069999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>11.873811999999999</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>38.278399999999998</v>
-      </c>
-      <c r="D21">
-        <v>52.033000000000001</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3.58995</v>
-      </c>
-      <c r="G21">
-        <v>16.042200000000001</v>
-      </c>
-      <c r="H21">
-        <v>1.4694799999999999</v>
-      </c>
-      <c r="I21">
-        <v>1.13163E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.37121E-5</v>
-      </c>
-      <c r="K21">
-        <v>0.104675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>12.498749999999999</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>37.789099999999998</v>
-      </c>
-      <c r="D22">
-        <v>51.360500000000002</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>3.81175</v>
-      </c>
-      <c r="G22">
-        <v>15.434100000000001</v>
-      </c>
-      <c r="H22">
-        <v>1.45092</v>
-      </c>
-      <c r="I22">
-        <v>1.45903E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2.1173099999999999E-5</v>
-      </c>
-      <c r="K22">
-        <v>7.6805899999999996E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>13.123687</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>37.256900000000002</v>
-      </c>
-      <c r="D23">
-        <v>50.695</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4.0158199999999997</v>
-      </c>
-      <c r="G23">
-        <v>14.7591</v>
-      </c>
-      <c r="H23">
-        <v>1.43319</v>
-      </c>
-      <c r="I23">
-        <v>1.87003E-2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3.38362E-5</v>
-      </c>
-      <c r="K23">
-        <v>5.5639399999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <v>13.748625000000001</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>36.724699999999999</v>
-      </c>
-      <c r="D24">
-        <v>50.029499999999999</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>4.2198399999999996</v>
-      </c>
-      <c r="G24">
-        <v>14.084</v>
-      </c>
-      <c r="H24">
-        <v>1.4154599999999999</v>
-      </c>
-      <c r="I24">
-        <v>2.3714699999999998E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>5.1746699999999997E-5</v>
-      </c>
-      <c r="K24">
-        <v>3.9911200000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <v>14.373562</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>36.192900000000002</v>
-      </c>
-      <c r="D25">
-        <v>49.405099999999997</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>4.4131</v>
-      </c>
-      <c r="G25">
-        <v>13.3811</v>
-      </c>
-      <c r="H25">
-        <v>1.39855</v>
-      </c>
-      <c r="I25">
-        <v>2.9520100000000001E-2</v>
-      </c>
-      <c r="J25" s="1">
-        <v>7.56491E-5</v>
-      </c>
-      <c r="K25">
-        <v>2.8178399999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>14.9985</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>35.661200000000001</v>
-      </c>
-      <c r="D26">
-        <v>48.780799999999999</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>4.6063400000000003</v>
-      </c>
-      <c r="G26">
-        <v>12.6782</v>
-      </c>
-      <c r="H26">
-        <v>1.38164</v>
-      </c>
-      <c r="I26">
-        <v>3.6649099999999997E-2</v>
-      </c>
-      <c r="J26">
-        <v>1.14325E-4</v>
-      </c>
-      <c r="K26">
-        <v>1.9567999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
-        <v>15.623436999999999</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.03483E-6</v>
-      </c>
-      <c r="C27">
-        <v>35.216799999999999</v>
-      </c>
-      <c r="D27">
-        <v>48.1922</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>4.7636799999999999</v>
-      </c>
-      <c r="G27">
-        <v>11.9756</v>
-      </c>
-      <c r="H27">
-        <v>1.3654299999999999</v>
-      </c>
-      <c r="I27">
-        <v>4.4390100000000002E-2</v>
-      </c>
-      <c r="J27">
-        <v>1.6802599999999999E-4</v>
-      </c>
-      <c r="K27">
-        <v>1.3351500000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
-        <v>16.248374999999999</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3.15726E-6</v>
-      </c>
-      <c r="C28">
-        <v>34.772599999999997</v>
-      </c>
-      <c r="D28">
-        <v>47.603700000000003</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>4.9209399999999999</v>
-      </c>
-      <c r="G28">
-        <v>11.273</v>
-      </c>
-      <c r="H28">
-        <v>1.3492200000000001</v>
-      </c>
-      <c r="I28">
-        <v>5.4035699999999999E-2</v>
-      </c>
-      <c r="J28">
-        <v>2.37982E-4</v>
-      </c>
-      <c r="K28">
-        <v>8.9508999999999995E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>16.873311999999999</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4.7741300000000001E-6</v>
-      </c>
-      <c r="C29">
-        <v>34.4086</v>
-      </c>
-      <c r="D29">
-        <v>47.0854</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>5.0409100000000002</v>
-      </c>
-      <c r="G29">
-        <v>10.536899999999999</v>
-      </c>
-      <c r="H29">
-        <v>1.3339099999999999</v>
-      </c>
-      <c r="I29">
-        <v>6.4059599999999994E-2</v>
-      </c>
-      <c r="J29">
-        <v>3.3509700000000002E-4</v>
-      </c>
-      <c r="K29">
-        <v>5.9168199999999997E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>17.498249999999999</v>
-      </c>
-      <c r="B30" s="1">
-        <v>7.3576100000000004E-6</v>
-      </c>
-      <c r="C30">
-        <v>34.044800000000002</v>
-      </c>
-      <c r="D30">
-        <v>46.567399999999999</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>5.1607799999999999</v>
-      </c>
-      <c r="G30">
-        <v>9.8006899999999995</v>
-      </c>
-      <c r="H30">
-        <v>1.3186100000000001</v>
-      </c>
-      <c r="I30">
-        <v>7.6775700000000002E-2</v>
-      </c>
-      <c r="J30">
-        <v>4.6931300000000001E-4</v>
-      </c>
-      <c r="K30">
-        <v>3.8328899999999998E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
-        <v>18.123187999999999</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1.11221E-5</v>
-      </c>
-      <c r="C31">
-        <v>33.728200000000001</v>
-      </c>
-      <c r="D31">
-        <v>46.113199999999999</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>5.2514200000000004</v>
-      </c>
-      <c r="G31">
-        <v>9.1069399999999998</v>
-      </c>
-      <c r="H31">
-        <v>1.3040400000000001</v>
-      </c>
-      <c r="I31">
-        <v>8.9972300000000005E-2</v>
-      </c>
-      <c r="J31">
-        <v>6.35686E-4</v>
-      </c>
-      <c r="K31">
-        <v>2.2596500000000002E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>18.748125000000002</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.6423399999999999E-5</v>
-      </c>
-      <c r="C32">
-        <v>33.411799999999999</v>
-      </c>
-      <c r="D32">
-        <v>45.659199999999998</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>5.3419800000000004</v>
-      </c>
-      <c r="G32">
-        <v>8.4132999999999996</v>
-      </c>
-      <c r="H32">
-        <v>1.2894600000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.105975</v>
-      </c>
-      <c r="J32">
-        <v>8.3859799999999997E-4</v>
-      </c>
-      <c r="K32">
-        <v>9.0527499999999998E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
-        <v>19.373062999999998</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2.37109E-5</v>
-      </c>
-      <c r="C33">
-        <v>33.125700000000002</v>
-      </c>
-      <c r="D33">
-        <v>45.249200000000002</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>5.4042000000000003</v>
-      </c>
-      <c r="G33">
-        <v>7.7493800000000004</v>
-      </c>
-      <c r="H33">
-        <v>1.2760100000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.12278600000000001</v>
-      </c>
-      <c r="J33">
-        <v>1.1162699999999999E-3</v>
-      </c>
-      <c r="K33" s="1">
-        <v>9.0414299999999999E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>19.998000000000001</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3.3504799999999998E-5</v>
-      </c>
-      <c r="C34">
-        <v>32.839599999999997</v>
-      </c>
-      <c r="D34">
-        <v>44.839399999999998</v>
-      </c>
-      <c r="E34">
-        <v>1.1626099999999999E-3</v>
-      </c>
-      <c r="F34">
-        <v>5.4663399999999998</v>
-      </c>
-      <c r="G34">
-        <v>7.0855499999999996</v>
-      </c>
-      <c r="H34">
-        <v>1.2625599999999999</v>
-      </c>
-      <c r="I34">
-        <v>0.14161599999999999</v>
-      </c>
-      <c r="J34">
-        <v>1.4516500000000001E-3</v>
-      </c>
-      <c r="K34">
-        <v>1.3904400000000001E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>20.622938000000001</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4.7255300000000001E-5</v>
-      </c>
-      <c r="C35">
-        <v>32.585099999999997</v>
-      </c>
-      <c r="D35">
-        <v>44.47</v>
-      </c>
-      <c r="E35">
-        <v>1.69827E-3</v>
-      </c>
-      <c r="F35">
-        <v>5.4843700000000002</v>
-      </c>
-      <c r="G35">
-        <v>6.3970399999999996</v>
-      </c>
-      <c r="H35">
-        <v>1.2504900000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.16161</v>
-      </c>
-      <c r="J35">
-        <v>1.8498099999999999E-3</v>
-      </c>
-      <c r="K35" s="1">
-        <v>3.4689900000000001E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>21.247875000000001</v>
-      </c>
-      <c r="B36" s="1">
-        <v>6.5680999999999997E-5</v>
-      </c>
-      <c r="C36">
-        <v>32.330599999999997</v>
-      </c>
-      <c r="D36">
-        <v>44.100700000000003</v>
-      </c>
-      <c r="E36">
-        <v>2.4528100000000001E-3</v>
-      </c>
-      <c r="F36">
-        <v>5.5022500000000001</v>
-      </c>
-      <c r="G36">
-        <v>5.7084599999999996</v>
-      </c>
-      <c r="H36">
-        <v>1.2384200000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.18310699999999999</v>
-      </c>
-      <c r="J36">
-        <v>2.3612799999999999E-3</v>
-      </c>
-      <c r="K36" s="1">
-        <v>3.5797699999999998E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>21.872813000000001</v>
-      </c>
-      <c r="B37" s="1">
-        <v>8.9195200000000003E-5</v>
-      </c>
-      <c r="C37">
-        <v>32.105499999999999</v>
-      </c>
-      <c r="D37">
-        <v>43.769199999999998</v>
-      </c>
-      <c r="E37">
-        <v>3.5027000000000001E-3</v>
-      </c>
-      <c r="F37">
-        <v>5.4933800000000002</v>
-      </c>
-      <c r="G37">
-        <v>5.0597599999999998</v>
-      </c>
-      <c r="H37">
-        <v>1.2274799999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.20621</v>
-      </c>
-      <c r="J37">
-        <v>3.0003500000000002E-3</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2.0684899999999999E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>22.49775</v>
-      </c>
-      <c r="B38">
-        <v>1.18708E-4</v>
-      </c>
-      <c r="C38">
-        <v>31.880400000000002</v>
-      </c>
-      <c r="D38">
-        <v>43.4377</v>
-      </c>
-      <c r="E38">
-        <v>4.94568E-3</v>
-      </c>
-      <c r="F38">
-        <v>5.4844099999999996</v>
-      </c>
-      <c r="G38">
-        <v>4.4112</v>
-      </c>
-      <c r="H38">
-        <v>1.21654</v>
-      </c>
-      <c r="I38">
-        <v>0.23044500000000001</v>
-      </c>
-      <c r="J38">
-        <v>3.7501700000000002E-3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>23.122688</v>
-      </c>
-      <c r="B39">
-        <v>1.5525700000000001E-4</v>
-      </c>
-      <c r="C39">
-        <v>31.671800000000001</v>
-      </c>
-      <c r="D39">
-        <v>43.147100000000002</v>
-      </c>
-      <c r="E39">
-        <v>6.9045399999999998E-3</v>
-      </c>
-      <c r="F39">
-        <v>5.4691799999999997</v>
-      </c>
-      <c r="G39">
-        <v>3.8476599999999999</v>
-      </c>
-      <c r="H39">
-        <v>1.2065600000000001</v>
-      </c>
-      <c r="I39">
-        <v>0.25691900000000001</v>
-      </c>
-      <c r="J39">
-        <v>4.6393500000000004E-3</v>
-      </c>
-      <c r="K39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
-        <v>23.747624999999999</v>
-      </c>
-      <c r="B40">
-        <v>2.0121000000000001E-4</v>
-      </c>
-      <c r="C40">
-        <v>31.4633</v>
-      </c>
-      <c r="D40">
-        <v>42.856699999999996</v>
-      </c>
-      <c r="E40">
-        <v>9.5307800000000008E-3</v>
-      </c>
-      <c r="F40">
-        <v>5.4539200000000001</v>
-      </c>
-      <c r="G40">
-        <v>3.2844199999999999</v>
-      </c>
-      <c r="H40">
-        <v>1.1965699999999999</v>
-      </c>
-      <c r="I40">
-        <v>0.284192</v>
-      </c>
-      <c r="J40">
-        <v>5.7291199999999999E-3</v>
-      </c>
-      <c r="K40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41">
-        <v>24.372563</v>
-      </c>
-      <c r="B41">
-        <v>2.60012E-4</v>
-      </c>
-      <c r="C41">
-        <v>31.2682</v>
-      </c>
-      <c r="D41">
-        <v>42.591700000000003</v>
-      </c>
-      <c r="E41">
-        <v>1.3007899999999999E-2</v>
-      </c>
-      <c r="F41">
-        <v>5.4380300000000004</v>
-      </c>
-      <c r="G41">
-        <v>2.8098200000000002</v>
-      </c>
-      <c r="H41">
-        <v>1.18763</v>
-      </c>
-      <c r="I41">
-        <v>0.31376700000000002</v>
-      </c>
-      <c r="J41">
-        <v>6.96628E-3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42">
-        <v>24.997499999999999</v>
-      </c>
-      <c r="B42">
-        <v>3.3236499999999999E-4</v>
-      </c>
-      <c r="C42">
-        <v>31.0732</v>
-      </c>
-      <c r="D42">
-        <v>42.326700000000002</v>
-      </c>
-      <c r="E42">
-        <v>1.7553699999999998E-2</v>
-      </c>
-      <c r="F42">
-        <v>5.4221399999999997</v>
-      </c>
-      <c r="G42">
-        <v>2.33555</v>
-      </c>
-      <c r="H42">
-        <v>1.17869</v>
-      </c>
-      <c r="I42">
-        <v>0.34368199999999999</v>
-      </c>
-      <c r="J42">
-        <v>8.3567199999999998E-3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>25.622437999999999</v>
-      </c>
-      <c r="B43">
-        <v>4.2075899999999999E-4</v>
-      </c>
-      <c r="C43">
-        <v>30.894400000000001</v>
-      </c>
-      <c r="D43">
-        <v>42.066600000000001</v>
-      </c>
-      <c r="E43">
-        <v>2.3406300000000001E-2</v>
-      </c>
-      <c r="F43">
-        <v>5.3945299999999996</v>
-      </c>
-      <c r="G43">
-        <v>1.9576100000000001</v>
-      </c>
-      <c r="H43">
-        <v>1.17049</v>
-      </c>
-      <c r="I43">
-        <v>0.374838</v>
-      </c>
-      <c r="J43">
-        <v>1.00252E-2</v>
-      </c>
-      <c r="K43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>26.247375000000002</v>
-      </c>
-      <c r="B44">
-        <v>5.2716000000000004E-4</v>
-      </c>
-      <c r="C44">
-        <v>30.715599999999998</v>
-      </c>
-      <c r="D44">
-        <v>41.8065</v>
-      </c>
-      <c r="E44">
-        <v>3.0784800000000001E-2</v>
-      </c>
-      <c r="F44">
-        <v>5.3668699999999996</v>
-      </c>
-      <c r="G44">
-        <v>1.58005</v>
-      </c>
-      <c r="H44">
-        <v>1.16229</v>
-      </c>
-      <c r="I44">
-        <v>0.406109</v>
-      </c>
-      <c r="J44">
-        <v>1.19133E-2</v>
-      </c>
-      <c r="K44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>26.872312999999998</v>
-      </c>
-      <c r="B45">
-        <v>6.5326700000000002E-4</v>
-      </c>
-      <c r="C45">
-        <v>30.545400000000001</v>
-      </c>
-      <c r="D45">
-        <v>41.555999999999997</v>
-      </c>
-      <c r="E45">
-        <v>3.9939799999999998E-2</v>
-      </c>
-      <c r="F45">
-        <v>5.3349799999999998</v>
-      </c>
-      <c r="G45">
-        <v>1.30124</v>
-      </c>
-      <c r="H45">
-        <v>1.1544099999999999</v>
-      </c>
-      <c r="I45">
-        <v>0.43787500000000001</v>
-      </c>
-      <c r="J45">
-        <v>1.4010999999999999E-2</v>
-      </c>
-      <c r="K45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46">
-        <v>27.497250000000001</v>
-      </c>
-      <c r="B46">
-        <v>8.0716299999999996E-4</v>
-      </c>
-      <c r="C46">
-        <v>30.3752</v>
-      </c>
-      <c r="D46">
-        <v>41.305500000000002</v>
-      </c>
-      <c r="E46">
-        <v>5.1188299999999999E-2</v>
-      </c>
-      <c r="F46">
-        <v>5.30307</v>
-      </c>
-      <c r="G46">
-        <v>1.02285</v>
-      </c>
-      <c r="H46">
-        <v>1.14653</v>
-      </c>
-      <c r="I46">
-        <v>0.46963300000000002</v>
-      </c>
-      <c r="J46">
-        <v>1.64073E-2</v>
-      </c>
-      <c r="K46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <v>28.122188000000001</v>
-      </c>
-      <c r="B47">
-        <v>9.8573900000000002E-4</v>
-      </c>
-      <c r="C47">
-        <v>30.208400000000001</v>
-      </c>
-      <c r="D47">
-        <v>41.058700000000002</v>
-      </c>
-      <c r="E47">
-        <v>6.4901799999999996E-2</v>
-      </c>
-      <c r="F47">
-        <v>5.2744099999999996</v>
-      </c>
-      <c r="G47">
-        <v>0.82817600000000002</v>
-      </c>
-      <c r="H47">
-        <v>1.1390800000000001</v>
-      </c>
-      <c r="I47">
-        <v>0.50137699999999996</v>
-      </c>
-      <c r="J47">
-        <v>1.9094699999999999E-2</v>
-      </c>
-      <c r="K47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>28.747125</v>
-      </c>
-      <c r="B48">
-        <v>1.1911999999999999E-3</v>
-      </c>
-      <c r="C48">
-        <v>30.041699999999999</v>
-      </c>
-      <c r="D48">
-        <v>40.811900000000001</v>
-      </c>
-      <c r="E48">
-        <v>8.1525799999999995E-2</v>
-      </c>
-      <c r="F48">
-        <v>5.2457700000000003</v>
-      </c>
-      <c r="G48">
-        <v>0.63387400000000005</v>
-      </c>
-      <c r="H48">
-        <v>1.1316299999999999</v>
-      </c>
-      <c r="I48">
-        <v>0.53273499999999996</v>
-      </c>
-      <c r="J48">
-        <v>2.1986599999999999E-2</v>
-      </c>
-      <c r="K48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <v>29.372063000000001</v>
-      </c>
-      <c r="B49">
-        <v>1.4258700000000001E-3</v>
-      </c>
-      <c r="C49">
-        <v>29.8813</v>
-      </c>
-      <c r="D49">
-        <v>40.5687</v>
-      </c>
-      <c r="E49">
-        <v>0.101605</v>
-      </c>
-      <c r="F49">
-        <v>5.2210599999999996</v>
-      </c>
-      <c r="G49">
-        <v>0.50390699999999999</v>
-      </c>
-      <c r="H49">
-        <v>1.1244499999999999</v>
-      </c>
-      <c r="I49">
-        <v>0.56369100000000005</v>
-      </c>
-      <c r="J49">
-        <v>2.5087000000000002E-2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <v>29.997</v>
-      </c>
-      <c r="B50">
-        <v>1.69217E-3</v>
-      </c>
-      <c r="C50">
-        <v>29.720800000000001</v>
-      </c>
-      <c r="D50">
-        <v>40.325400000000002</v>
-      </c>
-      <c r="E50">
-        <v>0.12581899999999999</v>
-      </c>
-      <c r="F50">
-        <v>5.1963600000000003</v>
-      </c>
-      <c r="G50">
-        <v>0.37423600000000001</v>
-      </c>
-      <c r="H50">
-        <v>1.1172599999999999</v>
-      </c>
-      <c r="I50">
-        <v>0.59285100000000002</v>
-      </c>
-      <c r="J50">
-        <v>2.8531299999999999E-2</v>
-      </c>
-      <c r="K50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>30.621938</v>
-      </c>
-      <c r="B51">
-        <v>2.0027700000000001E-3</v>
-      </c>
-      <c r="C51">
-        <v>29.567799999999998</v>
-      </c>
-      <c r="D51">
-        <v>40.098599999999998</v>
-      </c>
-      <c r="E51">
-        <v>0.155027</v>
-      </c>
-      <c r="F51">
-        <v>5.17239</v>
-      </c>
-      <c r="G51">
-        <v>0.29211700000000002</v>
-      </c>
-      <c r="H51">
-        <v>1.11015</v>
-      </c>
-      <c r="I51">
-        <v>0.621</v>
-      </c>
-      <c r="J51">
-        <v>3.2185199999999997E-2</v>
-      </c>
-      <c r="K51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <v>31.246874999999999</v>
-      </c>
-      <c r="B52">
-        <v>2.3508800000000001E-3</v>
-      </c>
-      <c r="C52">
-        <v>29.414899999999999</v>
-      </c>
-      <c r="D52">
-        <v>39.871899999999997</v>
-      </c>
-      <c r="E52">
-        <v>0.19018499999999999</v>
-      </c>
-      <c r="F52">
-        <v>5.1484300000000003</v>
-      </c>
-      <c r="G52">
-        <v>0.210227</v>
-      </c>
-      <c r="H52">
-        <v>1.1030500000000001</v>
-      </c>
-      <c r="I52">
-        <v>0.64634800000000003</v>
-      </c>
-      <c r="J52">
-        <v>3.6051800000000002E-2</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53">
-        <v>31.871813</v>
-      </c>
-      <c r="B53">
-        <v>2.7323199999999999E-3</v>
-      </c>
-      <c r="C53">
-        <v>29.2698</v>
-      </c>
-      <c r="D53">
-        <v>39.6631</v>
-      </c>
-      <c r="E53">
-        <v>0.231706</v>
-      </c>
-      <c r="F53">
-        <v>5.12547</v>
-      </c>
-      <c r="G53">
-        <v>0.161436</v>
-      </c>
-      <c r="H53">
-        <v>1.0961099999999999</v>
-      </c>
-      <c r="I53">
-        <v>0.67095199999999999</v>
-      </c>
-      <c r="J53">
-        <v>4.0239200000000003E-2</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <v>32.496749999999999</v>
-      </c>
-      <c r="B54">
-        <v>3.1464399999999999E-3</v>
-      </c>
-      <c r="C54">
-        <v>29.1248</v>
-      </c>
-      <c r="D54">
-        <v>39.4544</v>
-      </c>
-      <c r="E54">
-        <v>0.280082</v>
-      </c>
-      <c r="F54">
-        <v>5.1025200000000002</v>
-      </c>
-      <c r="G54">
-        <v>0.11281099999999999</v>
-      </c>
-      <c r="H54">
-        <v>1.08917</v>
-      </c>
-      <c r="I54">
-        <v>0.69208599999999998</v>
-      </c>
-      <c r="J54">
-        <v>4.4711000000000001E-2</v>
-      </c>
-      <c r="K54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>33.121687999999999</v>
-      </c>
-      <c r="B55">
-        <v>3.59348E-3</v>
-      </c>
-      <c r="C55">
-        <v>28.986599999999999</v>
-      </c>
-      <c r="D55">
-        <v>39.260599999999997</v>
-      </c>
-      <c r="E55">
-        <v>0.33609299999999998</v>
-      </c>
-      <c r="F55">
-        <v>5.0808600000000004</v>
-      </c>
-      <c r="G55">
-        <v>8.5556499999999994E-2</v>
-      </c>
-      <c r="H55">
-        <v>1.0826100000000001</v>
-      </c>
-      <c r="I55">
-        <v>0.71268100000000001</v>
-      </c>
-      <c r="J55">
-        <v>4.9368099999999998E-2</v>
-      </c>
-      <c r="K55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>33.746625000000002</v>
-      </c>
-      <c r="B56">
-        <v>4.0797100000000003E-3</v>
-      </c>
-      <c r="C56">
-        <v>28.848299999999998</v>
-      </c>
-      <c r="D56">
-        <v>39.066800000000001</v>
-      </c>
-      <c r="E56">
-        <v>0.400588</v>
-      </c>
-      <c r="F56">
-        <v>5.0592100000000002</v>
-      </c>
-      <c r="G56">
-        <v>5.8413100000000003E-2</v>
-      </c>
-      <c r="H56">
-        <v>1.07605</v>
-      </c>
-      <c r="I56">
-        <v>0.73008499999999998</v>
-      </c>
-      <c r="J56">
-        <v>5.4201600000000003E-2</v>
-      </c>
-      <c r="K56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>34.371563000000002</v>
-      </c>
-      <c r="B57">
-        <v>4.6051199999999999E-3</v>
-      </c>
-      <c r="C57">
-        <v>28.718599999999999</v>
-      </c>
-      <c r="D57">
-        <v>38.888399999999997</v>
-      </c>
-      <c r="E57">
-        <v>0.47450199999999998</v>
-      </c>
-      <c r="F57">
-        <v>5.0390899999999998</v>
-      </c>
-      <c r="G57">
-        <v>4.3389999999999998E-2</v>
-      </c>
-      <c r="H57">
-        <v>1.0699399999999999</v>
-      </c>
-      <c r="I57">
-        <v>0.74616899999999997</v>
-      </c>
-      <c r="J57">
-        <v>5.9197699999999999E-2</v>
-      </c>
-      <c r="K57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <v>34.996499999999997</v>
-      </c>
-      <c r="B58">
-        <v>5.1667900000000001E-3</v>
-      </c>
-      <c r="C58">
-        <v>28.588799999999999</v>
-      </c>
-      <c r="D58">
-        <v>38.71</v>
-      </c>
-      <c r="E58">
-        <v>0.55888000000000004</v>
-      </c>
-      <c r="F58">
-        <v>5.0189700000000004</v>
-      </c>
-      <c r="G58">
-        <v>2.8432800000000001E-2</v>
-      </c>
-      <c r="H58">
-        <v>1.0638399999999999</v>
-      </c>
-      <c r="I58">
-        <v>0.75810599999999995</v>
-      </c>
-      <c r="J58">
-        <v>6.4265600000000006E-2</v>
-      </c>
-      <c r="K58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <v>35.621437999999998</v>
-      </c>
-      <c r="B59">
-        <v>5.7666100000000001E-3</v>
-      </c>
-      <c r="C59">
-        <v>28.4697</v>
-      </c>
-      <c r="D59">
-        <v>38.543799999999997</v>
-      </c>
-      <c r="E59">
-        <v>0.65490300000000001</v>
-      </c>
-      <c r="F59">
-        <v>4.9999700000000002</v>
-      </c>
-      <c r="G59">
-        <v>2.0605200000000001E-2</v>
-      </c>
-      <c r="H59">
-        <v>1.0580700000000001</v>
-      </c>
-      <c r="I59">
-        <v>0.76750099999999999</v>
-      </c>
-      <c r="J59">
-        <v>6.9393800000000005E-2</v>
-      </c>
-      <c r="K59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>36.246375</v>
-      </c>
-      <c r="B60">
-        <v>6.4042700000000001E-3</v>
-      </c>
-      <c r="C60">
-        <v>28.3507</v>
-      </c>
-      <c r="D60">
-        <v>38.377600000000001</v>
-      </c>
-      <c r="E60">
-        <v>0.76392000000000004</v>
-      </c>
-      <c r="F60">
-        <v>4.9809700000000001</v>
-      </c>
-      <c r="G60">
-        <v>1.28177E-2</v>
-      </c>
-      <c r="H60">
-        <v>1.0523</v>
-      </c>
-      <c r="I60">
-        <v>0.77295000000000003</v>
-      </c>
-      <c r="J60">
-        <v>7.4560699999999994E-2</v>
-      </c>
-      <c r="K60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>36.871313000000001</v>
-      </c>
-      <c r="B61">
-        <v>7.07656E-3</v>
-      </c>
-      <c r="C61">
-        <v>28.244499999999999</v>
-      </c>
-      <c r="D61">
-        <v>38.219799999999999</v>
-      </c>
-      <c r="E61">
-        <v>0.88728399999999996</v>
-      </c>
-      <c r="F61">
-        <v>4.9625399999999997</v>
-      </c>
-      <c r="G61">
-        <v>9.0773199999999998E-3</v>
-      </c>
-      <c r="H61">
-        <v>1.0467900000000001</v>
-      </c>
-      <c r="I61">
-        <v>0.77619700000000003</v>
-      </c>
-      <c r="J61">
-        <v>7.9709799999999997E-2</v>
-      </c>
-      <c r="K61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62">
-        <v>37.496250000000003</v>
-      </c>
-      <c r="B62">
-        <v>7.7772199999999996E-3</v>
-      </c>
-      <c r="C62">
-        <v>28.138400000000001</v>
-      </c>
-      <c r="D62">
-        <v>38.062100000000001</v>
-      </c>
-      <c r="E62">
-        <v>1.02474</v>
-      </c>
-      <c r="F62">
-        <v>4.9441100000000002</v>
-      </c>
-      <c r="G62">
-        <v>5.3605299999999996E-3</v>
-      </c>
-      <c r="H62">
-        <v>1.04128</v>
-      </c>
-      <c r="I62">
-        <v>0.77758700000000003</v>
-      </c>
-      <c r="J62">
-        <v>8.4816000000000003E-2</v>
-      </c>
-      <c r="K62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63">
-        <v>38.121187999999997</v>
-      </c>
-      <c r="B63">
-        <v>8.4953600000000004E-3</v>
-      </c>
-      <c r="C63">
-        <v>28.038599999999999</v>
-      </c>
-      <c r="D63">
-        <v>37.912999999999997</v>
-      </c>
-      <c r="E63">
-        <v>1.17655</v>
-      </c>
-      <c r="F63">
-        <v>4.9257099999999996</v>
-      </c>
-      <c r="G63">
-        <v>3.7475400000000002E-3</v>
-      </c>
-      <c r="H63">
-        <v>1.03606</v>
-      </c>
-      <c r="I63">
-        <v>0.77800199999999997</v>
-      </c>
-      <c r="J63">
-        <v>8.9816199999999999E-2</v>
-      </c>
-      <c r="K63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64">
-        <v>38.746124999999999</v>
-      </c>
-      <c r="B64">
-        <v>9.2259500000000001E-3</v>
-      </c>
-      <c r="C64">
-        <v>27.939</v>
-      </c>
-      <c r="D64">
-        <v>37.764000000000003</v>
-      </c>
-      <c r="E64">
-        <v>1.3433999999999999</v>
-      </c>
-      <c r="F64">
-        <v>4.9073200000000003</v>
-      </c>
-      <c r="G64">
-        <v>2.1472499999999999E-3</v>
-      </c>
-      <c r="H64">
-        <v>1.0308299999999999</v>
-      </c>
-      <c r="I64">
-        <v>0.77798500000000004</v>
-      </c>
-      <c r="J64">
-        <v>9.4517100000000007E-2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65">
-        <v>39.371062999999999</v>
-      </c>
-      <c r="B65">
-        <v>9.9636199999999994E-3</v>
-      </c>
-      <c r="C65">
-        <v>27.838100000000001</v>
-      </c>
-      <c r="D65">
-        <v>37.620899999999999</v>
-      </c>
-      <c r="E65">
-        <v>1.52596</v>
-      </c>
-      <c r="F65">
-        <v>4.88889</v>
-      </c>
-      <c r="G65">
-        <v>1.49401E-3</v>
-      </c>
-      <c r="H65">
-        <v>1.02582</v>
-      </c>
-      <c r="I65">
-        <v>0.77851099999999995</v>
-      </c>
-      <c r="J65">
-        <v>9.89791E-2</v>
-      </c>
-      <c r="K65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F3215F-9074-3F44-90CD-3953359D4265}">
-  <dimension ref="A1:L24"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1">
-        <v>38000</v>
-      </c>
-      <c r="C1">
-        <v>38020</v>
-      </c>
-      <c r="D1">
-        <v>38040</v>
-      </c>
-      <c r="E1">
-        <v>38060</v>
-      </c>
-      <c r="F1">
-        <v>38080</v>
-      </c>
-      <c r="G1">
-        <v>38100</v>
-      </c>
-      <c r="H1">
-        <v>38120</v>
-      </c>
-      <c r="I1">
-        <v>38140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>49791</v>
-      </c>
-      <c r="C2">
-        <v>99950</v>
-      </c>
-      <c r="D2">
-        <v>99965</v>
-      </c>
-      <c r="E2">
-        <v>99972</v>
-      </c>
-      <c r="F2">
-        <v>99972</v>
-      </c>
-      <c r="G2">
-        <v>99975</v>
-      </c>
-      <c r="H2">
-        <v>99975</v>
-      </c>
-      <c r="I2">
-        <v>99974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>49798</v>
-      </c>
-      <c r="C3">
-        <v>70845</v>
-      </c>
-      <c r="D3">
-        <v>91714</v>
-      </c>
-      <c r="E3">
-        <v>99942</v>
-      </c>
-      <c r="F3">
-        <v>99948</v>
-      </c>
-      <c r="G3">
-        <v>99947</v>
-      </c>
-      <c r="H3">
-        <v>99950</v>
-      </c>
-      <c r="I3">
-        <v>99951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>50003</v>
-      </c>
-      <c r="C4">
-        <v>60453</v>
-      </c>
-      <c r="D4">
-        <v>71327</v>
-      </c>
-      <c r="E4">
-        <v>82313</v>
-      </c>
-      <c r="F4">
-        <v>93193</v>
-      </c>
-      <c r="G4">
-        <v>99916</v>
-      </c>
-      <c r="H4">
-        <v>99921</v>
-      </c>
-      <c r="I4">
-        <v>99922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>49857</v>
-      </c>
-      <c r="C5">
-        <v>56631</v>
-      </c>
-      <c r="D5">
-        <v>63329</v>
-      </c>
-      <c r="E5">
-        <v>70030</v>
-      </c>
-      <c r="F5">
-        <v>76701</v>
-      </c>
-      <c r="G5">
-        <v>83494</v>
-      </c>
-      <c r="H5">
-        <v>90141</v>
-      </c>
-      <c r="I5">
-        <v>96676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>49544</v>
-      </c>
-      <c r="C6">
-        <v>54456</v>
-      </c>
-      <c r="D6">
-        <v>58636</v>
-      </c>
-      <c r="E6">
-        <v>63576</v>
-      </c>
-      <c r="F6">
-        <v>68150</v>
-      </c>
-      <c r="G6">
-        <v>69782</v>
-      </c>
-      <c r="H6">
-        <v>69774</v>
-      </c>
-      <c r="I6">
-        <v>69604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>49144</v>
-      </c>
-      <c r="C7">
-        <v>50829</v>
-      </c>
-      <c r="D7">
-        <v>50711</v>
-      </c>
-      <c r="E7">
-        <v>50657</v>
-      </c>
-      <c r="F7">
-        <v>50919</v>
-      </c>
-      <c r="G7">
-        <v>50576</v>
-      </c>
-      <c r="H7">
-        <v>50530</v>
-      </c>
-      <c r="I7">
-        <v>50617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>37859</v>
-      </c>
-      <c r="C8">
-        <v>37868</v>
-      </c>
-      <c r="D8">
-        <v>37821</v>
-      </c>
-      <c r="E8">
-        <v>37947</v>
-      </c>
-      <c r="F8">
-        <v>38067</v>
-      </c>
-      <c r="G8">
-        <v>37877</v>
-      </c>
-      <c r="H8">
-        <v>37647</v>
-      </c>
-      <c r="I8">
-        <v>37919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT(B1,",",B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8)</f>
-        <v>38000,49791,49798,50003,49857,49544,49144,37859</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:I9" si="0">_xlfn.CONCAT(C1,",",C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8)</f>
-        <v>38020,99950,70845,60453,56631,54456,50829,37868</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>38040,99965,91714,71327,63329,58636,50711,37821</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>38060,99972,99942,82313,70030,63576,50657,37947</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>38080,99972,99948,93193,76701,68150,50919,38067</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>38100,99975,99947,99916,83494,69782,50576,37877</v>
-      </c>
-      <c r="H9" t="str">
-        <f>_xlfn.CONCAT(H1,",",H2,",",H3,",",H4,",",H5,",",H6,",",H7,",",H8)</f>
-        <v>38120,99975,99950,99921,90141,69774,50530,37647</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>38140,99974,99951,99922,96676,69604,50617,37919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="L24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:D24"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5826629-CCCD-6E42-8CAB-50D155E71577}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0.5</v>
-      </c>
-      <c r="B2">
-        <v>86465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>75514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1.5</v>
-      </c>
-      <c r="B4">
-        <v>60182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>41823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2.5</v>
-      </c>
-      <c r="B6">
-        <v>29364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>21439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>13347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>9241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>6590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>3746</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9C7AD9-F537-E041-9C51-7F1BF0ED7AF2}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0.5</v>
-      </c>
-      <c r="B2">
-        <v>90177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>79094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1.5</v>
-      </c>
-      <c r="B4">
-        <v>70663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>65179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2.5</v>
-      </c>
-      <c r="B6">
-        <v>61319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>58781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>55795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>53559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>50317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>38164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>28998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33FCB25-61C9-F947-9ECB-36E936977C04}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0.5</v>
-      </c>
-      <c r="B2">
-        <v>86465</v>
-      </c>
-      <c r="C2">
-        <v>90177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>75514</v>
-      </c>
-      <c r="C3">
-        <v>79094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1.5</v>
-      </c>
-      <c r="B4">
-        <v>60182</v>
-      </c>
-      <c r="C4">
-        <v>70663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>41823</v>
-      </c>
-      <c r="C5">
-        <v>65179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2.5</v>
-      </c>
-      <c r="B6">
-        <v>29364</v>
-      </c>
-      <c r="C6">
-        <v>61319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>21439</v>
-      </c>
-      <c r="C7">
-        <v>58781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>13347</v>
-      </c>
-      <c r="C8">
-        <v>55795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>9241</v>
-      </c>
-      <c r="C9">
-        <v>53559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>6590</v>
-      </c>
-      <c r="C10">
-        <v>50317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4904</v>
-      </c>
-      <c r="C11">
-        <v>38164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>3746</v>
-      </c>
-      <c r="C12">
-        <v>28998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="str">
-        <f>_xlfn.CONCAT(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12)</f>
-        <v>86465,75514,60182,41823,29364,21439,13347,9241,6590,4904,3746</v>
-      </c>
-      <c r="C13" t="str">
-        <f>_xlfn.CONCAT(C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8,",",C9,",",C10,",",C11,",",C12)</f>
-        <v>90177,79094,70663,65179,61319,58781,55795,53559,50317,38164,28998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBF3CCF-5E11-9B4D-8123-0A17D22F1E82}">
-  <dimension ref="A1:B65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>0.62493799999999999</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1.2498750000000001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1.8748119999999999</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2.4997500000000001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3.1246879999999999</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>3.749625</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>4.3745630000000002</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>4.9995000000000003</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>5.6244370000000004</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>6.2493749999999997</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>6.8743119999999998</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>7.49925</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>8.1241869999999992</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>8.7491249999999994</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>9.3740620000000003</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>9.9990000000000006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>10.623937</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>11.248875</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>11.873811999999999</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>12.498749999999999</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>13.123687</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>13.748625000000001</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>14.373562</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>14.9985</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>15.623436999999999</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>16.248374999999999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>16.873311999999999</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>17.498249999999999</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>18.123187999999999</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>18.748125000000002</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>19.373062999999998</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>19.998000000000001</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>20.622938000000001</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>21.247875000000001</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>21.872813000000001</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>22.49775</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.2606799999999999E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>23.122688</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1.9411399999999998E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>23.747624999999999</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2.94171E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>24.372563</v>
-      </c>
-      <c r="B41" s="1">
-        <v>4.3898299999999999E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>24.997499999999999</v>
-      </c>
-      <c r="B42" s="1">
-        <v>6.4531900000000005E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>25.622437999999999</v>
-      </c>
-      <c r="B43" s="1">
-        <v>9.4198500000000003E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>26.247375000000002</v>
-      </c>
-      <c r="B44">
-        <v>1.3583700000000001E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>26.872312999999998</v>
-      </c>
-      <c r="B45">
-        <v>1.92695E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>27.497250000000001</v>
-      </c>
-      <c r="B46">
-        <v>2.6895400000000001E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>28.122188000000001</v>
-      </c>
-      <c r="B47">
-        <v>3.68761E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>28.747125</v>
-      </c>
-      <c r="B48">
-        <v>4.9657800000000002E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>29.372063000000001</v>
-      </c>
-      <c r="B49">
-        <v>6.58072E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>29.997</v>
-      </c>
-      <c r="B50">
-        <v>8.5999500000000001E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>30.621938</v>
-      </c>
-      <c r="B51">
-        <v>1.11488E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>31.246874999999999</v>
-      </c>
-      <c r="B52">
-        <v>1.4319599999999999E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>31.871813</v>
-      </c>
-      <c r="B53">
-        <v>1.8234200000000001E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>32.496749999999999</v>
-      </c>
-      <c r="B54">
-        <v>2.3066499999999999E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>33.121687999999999</v>
-      </c>
-      <c r="B55">
-        <v>2.8971299999999999E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>33.746625000000002</v>
-      </c>
-      <c r="B56">
-        <v>3.6044800000000002E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>34.371563000000002</v>
-      </c>
-      <c r="B57">
-        <v>4.4416400000000002E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>34.996499999999997</v>
-      </c>
-      <c r="B58">
-        <v>5.4241200000000002E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>35.621437999999998</v>
-      </c>
-      <c r="B59">
-        <v>6.5834600000000002E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>36.246375</v>
-      </c>
-      <c r="B60">
-        <v>7.9275700000000001E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>36.871313000000001</v>
-      </c>
-      <c r="B61">
-        <v>9.4722999999999995E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>37.496250000000003</v>
-      </c>
-      <c r="B62">
-        <v>1.12374E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>38.121187999999997</v>
-      </c>
-      <c r="B63">
-        <v>1.32371E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>38.746124999999999</v>
-      </c>
-      <c r="B64">
-        <v>1.5465E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>39.371062999999999</v>
-      </c>
-      <c r="B65">
-        <v>1.7917200000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8602E299-E2BC-0C47-B9CF-564DC00D4155}">
-  <dimension ref="A1:B65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.5299800000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>4.7495250000000002</v>
-      </c>
-      <c r="B3">
-        <v>4.9590700000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>9.4990500000000004</v>
-      </c>
-      <c r="B4">
-        <v>0.108407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>14.248575000000001</v>
-      </c>
-      <c r="B5">
-        <v>0.138021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>18.998100000000001</v>
-      </c>
-      <c r="B6">
-        <v>0.13996400000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>23.747624999999999</v>
-      </c>
-      <c r="B7">
-        <v>0.13417999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>28.497150000000001</v>
-      </c>
-      <c r="B8">
-        <v>0.12914700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>33.246675000000003</v>
-      </c>
-      <c r="B9">
-        <v>0.12497800000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>37.996200000000002</v>
-      </c>
-      <c r="B10">
-        <v>0.12168900000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>42.745725</v>
-      </c>
-      <c r="B11">
-        <v>0.118883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>47.495249999999999</v>
-      </c>
-      <c r="B12">
-        <v>0.116371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>52.244774999999997</v>
-      </c>
-      <c r="B13">
-        <v>0.114409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>56.994300000000003</v>
-      </c>
-      <c r="B14">
-        <v>0.11291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>61.743825000000001</v>
-      </c>
-      <c r="B15">
-        <v>0.111737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>66.493350000000007</v>
-      </c>
-      <c r="B16">
-        <v>0.11065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>71.242874999999998</v>
-      </c>
-      <c r="B17">
-        <v>0.109553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>75.992400000000004</v>
-      </c>
-      <c r="B18">
-        <v>0.10879900000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>80.741924999999995</v>
-      </c>
-      <c r="B19">
-        <v>0.108303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>85.49145</v>
-      </c>
-      <c r="B20">
-        <v>0.107699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>90.240975000000006</v>
-      </c>
-      <c r="B21">
-        <v>0.107184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>94.990499999999997</v>
-      </c>
-      <c r="B22">
-        <v>0.10704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>99.740025000000003</v>
-      </c>
-      <c r="B23">
-        <v>0.10680000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>104.48954999999999</v>
-      </c>
-      <c r="B24">
-        <v>0.10600800000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>109.239075</v>
-      </c>
-      <c r="B25">
-        <v>0.105866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>113.98860000000001</v>
-      </c>
-      <c r="B26">
-        <v>0.107143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>118.738125</v>
-      </c>
-      <c r="B27">
-        <v>0.105543</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>123.48765</v>
-      </c>
-      <c r="B28">
-        <v>9.3028299999999994E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>128.23717500000001</v>
-      </c>
-      <c r="B29">
-        <v>6.7993899999999996E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>132.98670000000001</v>
-      </c>
-      <c r="B30">
-        <v>3.9479399999999998E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>137.73622499999999</v>
-      </c>
-      <c r="B31">
-        <v>1.8051500000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>142.48575</v>
-      </c>
-      <c r="B32">
-        <v>6.6462099999999996E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>147.235275</v>
-      </c>
-      <c r="B33">
-        <v>1.4636199999999999E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>151.98480000000001</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>156.73432500000001</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>161.48384999999999</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>166.233375</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>170.9829</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>175.73242500000001</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>180.48195000000001</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>185.23147499999999</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>189.98099999999999</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>194.730525</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>199.48005000000001</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>204.22957500000001</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>208.97909999999999</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>213.72862499999999</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>218.47815</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>223.227675</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>227.97720000000001</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>232.72672499999999</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>237.47624999999999</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>242.225775</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>246.9753</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>251.72482500000001</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>256.47435000000002</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>261.22387500000002</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>265.97340000000003</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>270.72292499999998</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>275.47244999999998</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>280.22197499999999</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>284.97149999999999</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>289.721025</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>294.47055</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>299.22007500000001</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F85B42-2B4D-954F-8745-2807E3662623}">
-  <dimension ref="A1:B59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>22.49775</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1.2606799999999999E-5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>23.122688</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.9411399999999998E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>23.747624999999999</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.94171E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>24.372563</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.3898299999999999E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>24.997499999999999</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.4531900000000005E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>25.622437999999999</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.4198500000000003E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>26.247375000000002</v>
-      </c>
-      <c r="B7">
-        <v>1.3583700000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>26.872312999999998</v>
-      </c>
-      <c r="B8">
-        <v>1.92695E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>27.497250000000001</v>
-      </c>
-      <c r="B9">
-        <v>2.6895400000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>28.122188000000001</v>
-      </c>
-      <c r="B10">
-        <v>3.68761E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>28.747125</v>
-      </c>
-      <c r="B11">
-        <v>4.9657800000000002E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>29.372063000000001</v>
-      </c>
-      <c r="B12">
-        <v>6.58072E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>29.997</v>
-      </c>
-      <c r="B13">
-        <v>8.5999500000000001E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>30.621938</v>
-      </c>
-      <c r="B14">
-        <v>1.11488E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>31.246874999999999</v>
-      </c>
-      <c r="B15">
-        <v>1.4319599999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>31.871813</v>
-      </c>
-      <c r="B16">
-        <v>1.8234200000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>32.496749999999999</v>
-      </c>
-      <c r="B17">
-        <v>2.3066499999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>33.121687999999999</v>
-      </c>
-      <c r="B18">
-        <v>2.8971299999999999E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>33.746625000000002</v>
-      </c>
-      <c r="B19">
-        <v>3.6044800000000002E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>34.371563000000002</v>
-      </c>
-      <c r="B20">
-        <v>4.4416400000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>34.996499999999997</v>
-      </c>
-      <c r="B21">
-        <v>5.4241200000000002E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>35.621437999999998</v>
-      </c>
-      <c r="B22">
-        <v>6.5834600000000002E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>36.246375</v>
-      </c>
-      <c r="B23">
-        <v>7.9275700000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>36.871313000000001</v>
-      </c>
-      <c r="B24">
-        <v>9.4722999999999995E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>37.496250000000003</v>
-      </c>
-      <c r="B25">
-        <v>1.12374E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>38.121187999999997</v>
-      </c>
-      <c r="B26">
-        <v>1.32371E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>38.746124999999999</v>
-      </c>
-      <c r="B27">
-        <v>1.5465E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>39.371062999999999</v>
-      </c>
-      <c r="B28">
-        <v>1.7917200000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>44.749524999999998</v>
-      </c>
-      <c r="B29">
-        <v>4.9590700000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>49.499049999999997</v>
-      </c>
-      <c r="B30">
-        <v>0.108407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>54.248575000000002</v>
-      </c>
-      <c r="B31">
-        <v>0.138021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>58.998100000000001</v>
-      </c>
-      <c r="B32">
-        <v>0.13996400000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>63.747624999999999</v>
-      </c>
-      <c r="B33">
-        <v>0.13417999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>68.497150000000005</v>
-      </c>
-      <c r="B34">
-        <v>0.12914700000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>73.24667500000001</v>
-      </c>
-      <c r="B35">
-        <v>0.12497800000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>77.996200000000002</v>
-      </c>
-      <c r="B36">
-        <v>0.12168900000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>82.745724999999993</v>
-      </c>
-      <c r="B37">
-        <v>0.118883</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>87.495249999999999</v>
-      </c>
-      <c r="B38">
-        <v>0.116371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>92.244775000000004</v>
-      </c>
-      <c r="B39">
-        <v>0.114409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>96.99430000000001</v>
-      </c>
-      <c r="B40">
-        <v>0.11291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>101.743825</v>
-      </c>
-      <c r="B41">
-        <v>0.111737</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>106.49335000000001</v>
-      </c>
-      <c r="B42">
-        <v>0.11065</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>111.242875</v>
-      </c>
-      <c r="B43">
-        <v>0.109553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>115.9924</v>
-      </c>
-      <c r="B44">
-        <v>0.10879900000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>120.74192499999999</v>
-      </c>
-      <c r="B45">
-        <v>0.108303</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>125.49145</v>
-      </c>
-      <c r="B46">
-        <v>0.107699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>130.24097499999999</v>
-      </c>
-      <c r="B47">
-        <v>0.107184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>134.9905</v>
-      </c>
-      <c r="B48">
-        <v>0.10704</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>139.740025</v>
-      </c>
-      <c r="B49">
-        <v>0.10680000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>144.48955000000001</v>
-      </c>
-      <c r="B50">
-        <v>0.10600800000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>149.23907500000001</v>
-      </c>
-      <c r="B51">
-        <v>0.105866</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>153.98860000000002</v>
-      </c>
-      <c r="B52">
-        <v>0.107143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>158.738125</v>
-      </c>
-      <c r="B53">
-        <v>0.105543</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>163.48765</v>
-      </c>
-      <c r="B54">
-        <v>9.3028299999999994E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>168.23717500000001</v>
-      </c>
-      <c r="B55">
-        <v>6.7993899999999996E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>172.98670000000001</v>
-      </c>
-      <c r="B56">
-        <v>3.9479399999999998E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>177.73622499999999</v>
-      </c>
-      <c r="B57">
-        <v>1.8051500000000002E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>182.48575</v>
-      </c>
-      <c r="B58">
-        <v>6.6462099999999996E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>187.235275</v>
-      </c>
-      <c r="B59">
-        <v>1.4636199999999999E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4EA55-118E-3F47-A701-CE00530C69B6}">
   <dimension ref="A1:AE65"/>
   <sheetViews>
@@ -25525,4 +20934,4840 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE2F76-9D1A-5B41-A705-5B92C35BCD23}">
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>19.465900000000001</v>
+      </c>
+      <c r="D2">
+        <v>26.186199999999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.26555099999999998</v>
+      </c>
+      <c r="G2">
+        <v>7.1443599999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.91435500000000003</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0.18302199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>0.62493799999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>22.0305</v>
+      </c>
+      <c r="D3">
+        <v>30.458500000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.32755299999999998</v>
+      </c>
+      <c r="G3">
+        <v>9.1340900000000005</v>
+      </c>
+      <c r="H3">
+        <v>1.0723</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0.23061499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1.2498750000000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>24.595099999999999</v>
+      </c>
+      <c r="D4">
+        <v>34.730800000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.38955499999999998</v>
+      </c>
+      <c r="G4">
+        <v>11.123799999999999</v>
+      </c>
+      <c r="H4">
+        <v>1.2302500000000001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0.36317700000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>1.8748119999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>27.1632</v>
+      </c>
+      <c r="D5">
+        <v>38.947299999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.47370899999999999</v>
+      </c>
+      <c r="G5">
+        <v>15.8523</v>
+      </c>
+      <c r="H5">
+        <v>1.3729899999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0.57785600000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2.4997500000000001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>29.731400000000001</v>
+      </c>
+      <c r="D6">
+        <v>43.163699999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.557867</v>
+      </c>
+      <c r="G6">
+        <v>20.581299999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.51573</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0.75995100000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>3.1246879999999999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>32.058500000000002</v>
+      </c>
+      <c r="D7">
+        <v>46.615000000000002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.668875</v>
+      </c>
+      <c r="G7">
+        <v>20.3748</v>
+      </c>
+      <c r="H7">
+        <v>1.6097300000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7.5475999999999994E-5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0.83035499999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>3.749625</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>34.3855</v>
+      </c>
+      <c r="D8">
+        <v>50.066000000000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.77989299999999995</v>
+      </c>
+      <c r="G8">
+        <v>20.1663</v>
+      </c>
+      <c r="H8">
+        <v>1.7037</v>
+      </c>
+      <c r="I8">
+        <v>1.21828E-4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0.82388300000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>4.3745630000000002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>36.101999999999997</v>
+      </c>
+      <c r="D9">
+        <v>52.264499999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.92218199999999995</v>
+      </c>
+      <c r="G9">
+        <v>20.084099999999999</v>
+      </c>
+      <c r="H9">
+        <v>1.70214</v>
+      </c>
+      <c r="I9">
+        <v>1.84876E-4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0.80240699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>4.9995000000000003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>37.818100000000001</v>
+      </c>
+      <c r="D10">
+        <v>54.462299999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1.0644899999999999</v>
+      </c>
+      <c r="G10">
+        <v>20.001999999999999</v>
+      </c>
+      <c r="H10">
+        <v>1.7005300000000001</v>
+      </c>
+      <c r="I10">
+        <v>2.8183400000000001E-4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0.774057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>5.6244370000000004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>38.706200000000003</v>
+      </c>
+      <c r="D11">
+        <v>55.600099999999998</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1.24448</v>
+      </c>
+      <c r="G11">
+        <v>19.902100000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.6591100000000001</v>
+      </c>
+      <c r="I11">
+        <v>4.24888E-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0.73296099999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>6.2493749999999997</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>39.593699999999998</v>
+      </c>
+      <c r="D12">
+        <v>56.737000000000002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1.42449</v>
+      </c>
+      <c r="G12">
+        <v>19.802099999999999</v>
+      </c>
+      <c r="H12">
+        <v>1.6176600000000001</v>
+      </c>
+      <c r="I12">
+        <v>6.1780799999999996E-4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0.67209700000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>6.8743119999999998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>39.974600000000002</v>
+      </c>
+      <c r="D13">
+        <v>56.545200000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1.6433899999999999</v>
+      </c>
+      <c r="G13">
+        <v>19.588699999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.60002</v>
+      </c>
+      <c r="I13">
+        <v>9.1924800000000001E-4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0.60321199999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>7.49925</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>40.354900000000001</v>
+      </c>
+      <c r="D14">
+        <v>56.351999999999997</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1.86233</v>
+      </c>
+      <c r="G14">
+        <v>19.3752</v>
+      </c>
+      <c r="H14">
+        <v>1.5824100000000001</v>
+      </c>
+      <c r="I14">
+        <v>1.2842000000000001E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0.52593999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>8.1241869999999992</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>40.4818</v>
+      </c>
+      <c r="D15">
+        <v>55.866799999999998</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2.1115499999999998</v>
+      </c>
+      <c r="G15">
+        <v>19.036100000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.5682</v>
+      </c>
+      <c r="I15">
+        <v>1.87568E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0.44770900000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>8.7491249999999994</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>40.608400000000003</v>
+      </c>
+      <c r="D16">
+        <v>55.381300000000003</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2.3608099999999999</v>
+      </c>
+      <c r="G16">
+        <v>18.696899999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.55399</v>
+      </c>
+      <c r="I16">
+        <v>2.5305700000000002E-3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0.37168099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>9.3740620000000003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>40.248899999999999</v>
+      </c>
+      <c r="D17">
+        <v>54.754100000000001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2.62026</v>
+      </c>
+      <c r="G17">
+        <v>18.235099999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.5384899999999999</v>
+      </c>
+      <c r="I17">
+        <v>3.6067199999999999E-3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0.30096899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>39.8887</v>
+      </c>
+      <c r="D18">
+        <v>54.1267</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2.8797199999999998</v>
+      </c>
+      <c r="G18">
+        <v>17.773199999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.52298</v>
+      </c>
+      <c r="I18">
+        <v>4.7692699999999999E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0.23849799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>10.623937</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>39.328499999999998</v>
+      </c>
+      <c r="D19">
+        <v>53.416200000000003</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3.12392</v>
+      </c>
+      <c r="G19">
+        <v>17.2118</v>
+      </c>
+      <c r="H19">
+        <v>1.5055099999999999</v>
+      </c>
+      <c r="I19">
+        <v>6.5521700000000004E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0.18526699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>11.248875</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>38.767899999999997</v>
+      </c>
+      <c r="D20">
+        <v>52.705500000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3.3681100000000002</v>
+      </c>
+      <c r="G20">
+        <v>16.650300000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.4880500000000001</v>
+      </c>
+      <c r="I20">
+        <v>8.5611699999999999E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0.14069999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>11.873811999999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>38.278399999999998</v>
+      </c>
+      <c r="D21">
+        <v>52.033000000000001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3.58995</v>
+      </c>
+      <c r="G21">
+        <v>16.042200000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.4694799999999999</v>
+      </c>
+      <c r="I21">
+        <v>1.13163E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.37121E-5</v>
+      </c>
+      <c r="K21">
+        <v>0.104675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>12.498749999999999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>37.789099999999998</v>
+      </c>
+      <c r="D22">
+        <v>51.360500000000002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>3.81175</v>
+      </c>
+      <c r="G22">
+        <v>15.434100000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.45092</v>
+      </c>
+      <c r="I22">
+        <v>1.45903E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.1173099999999999E-5</v>
+      </c>
+      <c r="K22">
+        <v>7.6805899999999996E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>13.123687</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>37.256900000000002</v>
+      </c>
+      <c r="D23">
+        <v>50.695</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4.0158199999999997</v>
+      </c>
+      <c r="G23">
+        <v>14.7591</v>
+      </c>
+      <c r="H23">
+        <v>1.43319</v>
+      </c>
+      <c r="I23">
+        <v>1.87003E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3.38362E-5</v>
+      </c>
+      <c r="K23">
+        <v>5.5639399999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>13.748625000000001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>36.724699999999999</v>
+      </c>
+      <c r="D24">
+        <v>50.029499999999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>4.2198399999999996</v>
+      </c>
+      <c r="G24">
+        <v>14.084</v>
+      </c>
+      <c r="H24">
+        <v>1.4154599999999999</v>
+      </c>
+      <c r="I24">
+        <v>2.3714699999999998E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.1746699999999997E-5</v>
+      </c>
+      <c r="K24">
+        <v>3.9911200000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>14.373562</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>36.192900000000002</v>
+      </c>
+      <c r="D25">
+        <v>49.405099999999997</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>4.4131</v>
+      </c>
+      <c r="G25">
+        <v>13.3811</v>
+      </c>
+      <c r="H25">
+        <v>1.39855</v>
+      </c>
+      <c r="I25">
+        <v>2.9520100000000001E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7.56491E-5</v>
+      </c>
+      <c r="K25">
+        <v>2.8178399999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>14.9985</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>35.661200000000001</v>
+      </c>
+      <c r="D26">
+        <v>48.780799999999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>4.6063400000000003</v>
+      </c>
+      <c r="G26">
+        <v>12.6782</v>
+      </c>
+      <c r="H26">
+        <v>1.38164</v>
+      </c>
+      <c r="I26">
+        <v>3.6649099999999997E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.14325E-4</v>
+      </c>
+      <c r="K26">
+        <v>1.9567999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>15.623436999999999</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.03483E-6</v>
+      </c>
+      <c r="C27">
+        <v>35.216799999999999</v>
+      </c>
+      <c r="D27">
+        <v>48.1922</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4.7636799999999999</v>
+      </c>
+      <c r="G27">
+        <v>11.9756</v>
+      </c>
+      <c r="H27">
+        <v>1.3654299999999999</v>
+      </c>
+      <c r="I27">
+        <v>4.4390100000000002E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.6802599999999999E-4</v>
+      </c>
+      <c r="K27">
+        <v>1.3351500000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>16.248374999999999</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.15726E-6</v>
+      </c>
+      <c r="C28">
+        <v>34.772599999999997</v>
+      </c>
+      <c r="D28">
+        <v>47.603700000000003</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>4.9209399999999999</v>
+      </c>
+      <c r="G28">
+        <v>11.273</v>
+      </c>
+      <c r="H28">
+        <v>1.3492200000000001</v>
+      </c>
+      <c r="I28">
+        <v>5.4035699999999999E-2</v>
+      </c>
+      <c r="J28">
+        <v>2.37982E-4</v>
+      </c>
+      <c r="K28">
+        <v>8.9508999999999995E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>16.873311999999999</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.7741300000000001E-6</v>
+      </c>
+      <c r="C29">
+        <v>34.4086</v>
+      </c>
+      <c r="D29">
+        <v>47.0854</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>5.0409100000000002</v>
+      </c>
+      <c r="G29">
+        <v>10.536899999999999</v>
+      </c>
+      <c r="H29">
+        <v>1.3339099999999999</v>
+      </c>
+      <c r="I29">
+        <v>6.4059599999999994E-2</v>
+      </c>
+      <c r="J29">
+        <v>3.3509700000000002E-4</v>
+      </c>
+      <c r="K29">
+        <v>5.9168199999999997E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>17.498249999999999</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.3576100000000004E-6</v>
+      </c>
+      <c r="C30">
+        <v>34.044800000000002</v>
+      </c>
+      <c r="D30">
+        <v>46.567399999999999</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>5.1607799999999999</v>
+      </c>
+      <c r="G30">
+        <v>9.8006899999999995</v>
+      </c>
+      <c r="H30">
+        <v>1.3186100000000001</v>
+      </c>
+      <c r="I30">
+        <v>7.6775700000000002E-2</v>
+      </c>
+      <c r="J30">
+        <v>4.6931300000000001E-4</v>
+      </c>
+      <c r="K30">
+        <v>3.8328899999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>18.123187999999999</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.11221E-5</v>
+      </c>
+      <c r="C31">
+        <v>33.728200000000001</v>
+      </c>
+      <c r="D31">
+        <v>46.113199999999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>5.2514200000000004</v>
+      </c>
+      <c r="G31">
+        <v>9.1069399999999998</v>
+      </c>
+      <c r="H31">
+        <v>1.3040400000000001</v>
+      </c>
+      <c r="I31">
+        <v>8.9972300000000005E-2</v>
+      </c>
+      <c r="J31">
+        <v>6.35686E-4</v>
+      </c>
+      <c r="K31">
+        <v>2.2596500000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>18.748125000000002</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.6423399999999999E-5</v>
+      </c>
+      <c r="C32">
+        <v>33.411799999999999</v>
+      </c>
+      <c r="D32">
+        <v>45.659199999999998</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>5.3419800000000004</v>
+      </c>
+      <c r="G32">
+        <v>8.4132999999999996</v>
+      </c>
+      <c r="H32">
+        <v>1.2894600000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.105975</v>
+      </c>
+      <c r="J32">
+        <v>8.3859799999999997E-4</v>
+      </c>
+      <c r="K32">
+        <v>9.0527499999999998E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>19.373062999999998</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.37109E-5</v>
+      </c>
+      <c r="C33">
+        <v>33.125700000000002</v>
+      </c>
+      <c r="D33">
+        <v>45.249200000000002</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>5.4042000000000003</v>
+      </c>
+      <c r="G33">
+        <v>7.7493800000000004</v>
+      </c>
+      <c r="H33">
+        <v>1.2760100000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.12278600000000001</v>
+      </c>
+      <c r="J33">
+        <v>1.1162699999999999E-3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9.0414299999999999E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>19.998000000000001</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.3504799999999998E-5</v>
+      </c>
+      <c r="C34">
+        <v>32.839599999999997</v>
+      </c>
+      <c r="D34">
+        <v>44.839399999999998</v>
+      </c>
+      <c r="E34">
+        <v>1.1626099999999999E-3</v>
+      </c>
+      <c r="F34">
+        <v>5.4663399999999998</v>
+      </c>
+      <c r="G34">
+        <v>7.0855499999999996</v>
+      </c>
+      <c r="H34">
+        <v>1.2625599999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.14161599999999999</v>
+      </c>
+      <c r="J34">
+        <v>1.4516500000000001E-3</v>
+      </c>
+      <c r="K34">
+        <v>1.3904400000000001E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>20.622938000000001</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4.7255300000000001E-5</v>
+      </c>
+      <c r="C35">
+        <v>32.585099999999997</v>
+      </c>
+      <c r="D35">
+        <v>44.47</v>
+      </c>
+      <c r="E35">
+        <v>1.69827E-3</v>
+      </c>
+      <c r="F35">
+        <v>5.4843700000000002</v>
+      </c>
+      <c r="G35">
+        <v>6.3970399999999996</v>
+      </c>
+      <c r="H35">
+        <v>1.2504900000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.16161</v>
+      </c>
+      <c r="J35">
+        <v>1.8498099999999999E-3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3.4689900000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>21.247875000000001</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6.5680999999999997E-5</v>
+      </c>
+      <c r="C36">
+        <v>32.330599999999997</v>
+      </c>
+      <c r="D36">
+        <v>44.100700000000003</v>
+      </c>
+      <c r="E36">
+        <v>2.4528100000000001E-3</v>
+      </c>
+      <c r="F36">
+        <v>5.5022500000000001</v>
+      </c>
+      <c r="G36">
+        <v>5.7084599999999996</v>
+      </c>
+      <c r="H36">
+        <v>1.2384200000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.18310699999999999</v>
+      </c>
+      <c r="J36">
+        <v>2.3612799999999999E-3</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3.5797699999999998E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>21.872813000000001</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8.9195200000000003E-5</v>
+      </c>
+      <c r="C37">
+        <v>32.105499999999999</v>
+      </c>
+      <c r="D37">
+        <v>43.769199999999998</v>
+      </c>
+      <c r="E37">
+        <v>3.5027000000000001E-3</v>
+      </c>
+      <c r="F37">
+        <v>5.4933800000000002</v>
+      </c>
+      <c r="G37">
+        <v>5.0597599999999998</v>
+      </c>
+      <c r="H37">
+        <v>1.2274799999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.20621</v>
+      </c>
+      <c r="J37">
+        <v>3.0003500000000002E-3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.0684899999999999E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>22.49775</v>
+      </c>
+      <c r="B38">
+        <v>1.18708E-4</v>
+      </c>
+      <c r="C38">
+        <v>31.880400000000002</v>
+      </c>
+      <c r="D38">
+        <v>43.4377</v>
+      </c>
+      <c r="E38">
+        <v>4.94568E-3</v>
+      </c>
+      <c r="F38">
+        <v>5.4844099999999996</v>
+      </c>
+      <c r="G38">
+        <v>4.4112</v>
+      </c>
+      <c r="H38">
+        <v>1.21654</v>
+      </c>
+      <c r="I38">
+        <v>0.23044500000000001</v>
+      </c>
+      <c r="J38">
+        <v>3.7501700000000002E-3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>23.122688</v>
+      </c>
+      <c r="B39">
+        <v>1.5525700000000001E-4</v>
+      </c>
+      <c r="C39">
+        <v>31.671800000000001</v>
+      </c>
+      <c r="D39">
+        <v>43.147100000000002</v>
+      </c>
+      <c r="E39">
+        <v>6.9045399999999998E-3</v>
+      </c>
+      <c r="F39">
+        <v>5.4691799999999997</v>
+      </c>
+      <c r="G39">
+        <v>3.8476599999999999</v>
+      </c>
+      <c r="H39">
+        <v>1.2065600000000001</v>
+      </c>
+      <c r="I39">
+        <v>0.25691900000000001</v>
+      </c>
+      <c r="J39">
+        <v>4.6393500000000004E-3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>23.747624999999999</v>
+      </c>
+      <c r="B40">
+        <v>2.0121000000000001E-4</v>
+      </c>
+      <c r="C40">
+        <v>31.4633</v>
+      </c>
+      <c r="D40">
+        <v>42.856699999999996</v>
+      </c>
+      <c r="E40">
+        <v>9.5307800000000008E-3</v>
+      </c>
+      <c r="F40">
+        <v>5.4539200000000001</v>
+      </c>
+      <c r="G40">
+        <v>3.2844199999999999</v>
+      </c>
+      <c r="H40">
+        <v>1.1965699999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.284192</v>
+      </c>
+      <c r="J40">
+        <v>5.7291199999999999E-3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>24.372563</v>
+      </c>
+      <c r="B41">
+        <v>2.60012E-4</v>
+      </c>
+      <c r="C41">
+        <v>31.2682</v>
+      </c>
+      <c r="D41">
+        <v>42.591700000000003</v>
+      </c>
+      <c r="E41">
+        <v>1.3007899999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>5.4380300000000004</v>
+      </c>
+      <c r="G41">
+        <v>2.8098200000000002</v>
+      </c>
+      <c r="H41">
+        <v>1.18763</v>
+      </c>
+      <c r="I41">
+        <v>0.31376700000000002</v>
+      </c>
+      <c r="J41">
+        <v>6.96628E-3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>24.997499999999999</v>
+      </c>
+      <c r="B42">
+        <v>3.3236499999999999E-4</v>
+      </c>
+      <c r="C42">
+        <v>31.0732</v>
+      </c>
+      <c r="D42">
+        <v>42.326700000000002</v>
+      </c>
+      <c r="E42">
+        <v>1.7553699999999998E-2</v>
+      </c>
+      <c r="F42">
+        <v>5.4221399999999997</v>
+      </c>
+      <c r="G42">
+        <v>2.33555</v>
+      </c>
+      <c r="H42">
+        <v>1.17869</v>
+      </c>
+      <c r="I42">
+        <v>0.34368199999999999</v>
+      </c>
+      <c r="J42">
+        <v>8.3567199999999998E-3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>25.622437999999999</v>
+      </c>
+      <c r="B43">
+        <v>4.2075899999999999E-4</v>
+      </c>
+      <c r="C43">
+        <v>30.894400000000001</v>
+      </c>
+      <c r="D43">
+        <v>42.066600000000001</v>
+      </c>
+      <c r="E43">
+        <v>2.3406300000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>5.3945299999999996</v>
+      </c>
+      <c r="G43">
+        <v>1.9576100000000001</v>
+      </c>
+      <c r="H43">
+        <v>1.17049</v>
+      </c>
+      <c r="I43">
+        <v>0.374838</v>
+      </c>
+      <c r="J43">
+        <v>1.00252E-2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>26.247375000000002</v>
+      </c>
+      <c r="B44">
+        <v>5.2716000000000004E-4</v>
+      </c>
+      <c r="C44">
+        <v>30.715599999999998</v>
+      </c>
+      <c r="D44">
+        <v>41.8065</v>
+      </c>
+      <c r="E44">
+        <v>3.0784800000000001E-2</v>
+      </c>
+      <c r="F44">
+        <v>5.3668699999999996</v>
+      </c>
+      <c r="G44">
+        <v>1.58005</v>
+      </c>
+      <c r="H44">
+        <v>1.16229</v>
+      </c>
+      <c r="I44">
+        <v>0.406109</v>
+      </c>
+      <c r="J44">
+        <v>1.19133E-2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>26.872312999999998</v>
+      </c>
+      <c r="B45">
+        <v>6.5326700000000002E-4</v>
+      </c>
+      <c r="C45">
+        <v>30.545400000000001</v>
+      </c>
+      <c r="D45">
+        <v>41.555999999999997</v>
+      </c>
+      <c r="E45">
+        <v>3.9939799999999998E-2</v>
+      </c>
+      <c r="F45">
+        <v>5.3349799999999998</v>
+      </c>
+      <c r="G45">
+        <v>1.30124</v>
+      </c>
+      <c r="H45">
+        <v>1.1544099999999999</v>
+      </c>
+      <c r="I45">
+        <v>0.43787500000000001</v>
+      </c>
+      <c r="J45">
+        <v>1.4010999999999999E-2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>27.497250000000001</v>
+      </c>
+      <c r="B46">
+        <v>8.0716299999999996E-4</v>
+      </c>
+      <c r="C46">
+        <v>30.3752</v>
+      </c>
+      <c r="D46">
+        <v>41.305500000000002</v>
+      </c>
+      <c r="E46">
+        <v>5.1188299999999999E-2</v>
+      </c>
+      <c r="F46">
+        <v>5.30307</v>
+      </c>
+      <c r="G46">
+        <v>1.02285</v>
+      </c>
+      <c r="H46">
+        <v>1.14653</v>
+      </c>
+      <c r="I46">
+        <v>0.46963300000000002</v>
+      </c>
+      <c r="J46">
+        <v>1.64073E-2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>28.122188000000001</v>
+      </c>
+      <c r="B47">
+        <v>9.8573900000000002E-4</v>
+      </c>
+      <c r="C47">
+        <v>30.208400000000001</v>
+      </c>
+      <c r="D47">
+        <v>41.058700000000002</v>
+      </c>
+      <c r="E47">
+        <v>6.4901799999999996E-2</v>
+      </c>
+      <c r="F47">
+        <v>5.2744099999999996</v>
+      </c>
+      <c r="G47">
+        <v>0.82817600000000002</v>
+      </c>
+      <c r="H47">
+        <v>1.1390800000000001</v>
+      </c>
+      <c r="I47">
+        <v>0.50137699999999996</v>
+      </c>
+      <c r="J47">
+        <v>1.9094699999999999E-2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>28.747125</v>
+      </c>
+      <c r="B48">
+        <v>1.1911999999999999E-3</v>
+      </c>
+      <c r="C48">
+        <v>30.041699999999999</v>
+      </c>
+      <c r="D48">
+        <v>40.811900000000001</v>
+      </c>
+      <c r="E48">
+        <v>8.1525799999999995E-2</v>
+      </c>
+      <c r="F48">
+        <v>5.2457700000000003</v>
+      </c>
+      <c r="G48">
+        <v>0.63387400000000005</v>
+      </c>
+      <c r="H48">
+        <v>1.1316299999999999</v>
+      </c>
+      <c r="I48">
+        <v>0.53273499999999996</v>
+      </c>
+      <c r="J48">
+        <v>2.1986599999999999E-2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>29.372063000000001</v>
+      </c>
+      <c r="B49">
+        <v>1.4258700000000001E-3</v>
+      </c>
+      <c r="C49">
+        <v>29.8813</v>
+      </c>
+      <c r="D49">
+        <v>40.5687</v>
+      </c>
+      <c r="E49">
+        <v>0.101605</v>
+      </c>
+      <c r="F49">
+        <v>5.2210599999999996</v>
+      </c>
+      <c r="G49">
+        <v>0.50390699999999999</v>
+      </c>
+      <c r="H49">
+        <v>1.1244499999999999</v>
+      </c>
+      <c r="I49">
+        <v>0.56369100000000005</v>
+      </c>
+      <c r="J49">
+        <v>2.5087000000000002E-2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>29.997</v>
+      </c>
+      <c r="B50">
+        <v>1.69217E-3</v>
+      </c>
+      <c r="C50">
+        <v>29.720800000000001</v>
+      </c>
+      <c r="D50">
+        <v>40.325400000000002</v>
+      </c>
+      <c r="E50">
+        <v>0.12581899999999999</v>
+      </c>
+      <c r="F50">
+        <v>5.1963600000000003</v>
+      </c>
+      <c r="G50">
+        <v>0.37423600000000001</v>
+      </c>
+      <c r="H50">
+        <v>1.1172599999999999</v>
+      </c>
+      <c r="I50">
+        <v>0.59285100000000002</v>
+      </c>
+      <c r="J50">
+        <v>2.8531299999999999E-2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>30.621938</v>
+      </c>
+      <c r="B51">
+        <v>2.0027700000000001E-3</v>
+      </c>
+      <c r="C51">
+        <v>29.567799999999998</v>
+      </c>
+      <c r="D51">
+        <v>40.098599999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.155027</v>
+      </c>
+      <c r="F51">
+        <v>5.17239</v>
+      </c>
+      <c r="G51">
+        <v>0.29211700000000002</v>
+      </c>
+      <c r="H51">
+        <v>1.11015</v>
+      </c>
+      <c r="I51">
+        <v>0.621</v>
+      </c>
+      <c r="J51">
+        <v>3.2185199999999997E-2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>31.246874999999999</v>
+      </c>
+      <c r="B52">
+        <v>2.3508800000000001E-3</v>
+      </c>
+      <c r="C52">
+        <v>29.414899999999999</v>
+      </c>
+      <c r="D52">
+        <v>39.871899999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.19018499999999999</v>
+      </c>
+      <c r="F52">
+        <v>5.1484300000000003</v>
+      </c>
+      <c r="G52">
+        <v>0.210227</v>
+      </c>
+      <c r="H52">
+        <v>1.1030500000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.64634800000000003</v>
+      </c>
+      <c r="J52">
+        <v>3.6051800000000002E-2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>31.871813</v>
+      </c>
+      <c r="B53">
+        <v>2.7323199999999999E-3</v>
+      </c>
+      <c r="C53">
+        <v>29.2698</v>
+      </c>
+      <c r="D53">
+        <v>39.6631</v>
+      </c>
+      <c r="E53">
+        <v>0.231706</v>
+      </c>
+      <c r="F53">
+        <v>5.12547</v>
+      </c>
+      <c r="G53">
+        <v>0.161436</v>
+      </c>
+      <c r="H53">
+        <v>1.0961099999999999</v>
+      </c>
+      <c r="I53">
+        <v>0.67095199999999999</v>
+      </c>
+      <c r="J53">
+        <v>4.0239200000000003E-2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>32.496749999999999</v>
+      </c>
+      <c r="B54">
+        <v>3.1464399999999999E-3</v>
+      </c>
+      <c r="C54">
+        <v>29.1248</v>
+      </c>
+      <c r="D54">
+        <v>39.4544</v>
+      </c>
+      <c r="E54">
+        <v>0.280082</v>
+      </c>
+      <c r="F54">
+        <v>5.1025200000000002</v>
+      </c>
+      <c r="G54">
+        <v>0.11281099999999999</v>
+      </c>
+      <c r="H54">
+        <v>1.08917</v>
+      </c>
+      <c r="I54">
+        <v>0.69208599999999998</v>
+      </c>
+      <c r="J54">
+        <v>4.4711000000000001E-2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>33.121687999999999</v>
+      </c>
+      <c r="B55">
+        <v>3.59348E-3</v>
+      </c>
+      <c r="C55">
+        <v>28.986599999999999</v>
+      </c>
+      <c r="D55">
+        <v>39.260599999999997</v>
+      </c>
+      <c r="E55">
+        <v>0.33609299999999998</v>
+      </c>
+      <c r="F55">
+        <v>5.0808600000000004</v>
+      </c>
+      <c r="G55">
+        <v>8.5556499999999994E-2</v>
+      </c>
+      <c r="H55">
+        <v>1.0826100000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.71268100000000001</v>
+      </c>
+      <c r="J55">
+        <v>4.9368099999999998E-2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>33.746625000000002</v>
+      </c>
+      <c r="B56">
+        <v>4.0797100000000003E-3</v>
+      </c>
+      <c r="C56">
+        <v>28.848299999999998</v>
+      </c>
+      <c r="D56">
+        <v>39.066800000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.400588</v>
+      </c>
+      <c r="F56">
+        <v>5.0592100000000002</v>
+      </c>
+      <c r="G56">
+        <v>5.8413100000000003E-2</v>
+      </c>
+      <c r="H56">
+        <v>1.07605</v>
+      </c>
+      <c r="I56">
+        <v>0.73008499999999998</v>
+      </c>
+      <c r="J56">
+        <v>5.4201600000000003E-2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>34.371563000000002</v>
+      </c>
+      <c r="B57">
+        <v>4.6051199999999999E-3</v>
+      </c>
+      <c r="C57">
+        <v>28.718599999999999</v>
+      </c>
+      <c r="D57">
+        <v>38.888399999999997</v>
+      </c>
+      <c r="E57">
+        <v>0.47450199999999998</v>
+      </c>
+      <c r="F57">
+        <v>5.0390899999999998</v>
+      </c>
+      <c r="G57">
+        <v>4.3389999999999998E-2</v>
+      </c>
+      <c r="H57">
+        <v>1.0699399999999999</v>
+      </c>
+      <c r="I57">
+        <v>0.74616899999999997</v>
+      </c>
+      <c r="J57">
+        <v>5.9197699999999999E-2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>34.996499999999997</v>
+      </c>
+      <c r="B58">
+        <v>5.1667900000000001E-3</v>
+      </c>
+      <c r="C58">
+        <v>28.588799999999999</v>
+      </c>
+      <c r="D58">
+        <v>38.71</v>
+      </c>
+      <c r="E58">
+        <v>0.55888000000000004</v>
+      </c>
+      <c r="F58">
+        <v>5.0189700000000004</v>
+      </c>
+      <c r="G58">
+        <v>2.8432800000000001E-2</v>
+      </c>
+      <c r="H58">
+        <v>1.0638399999999999</v>
+      </c>
+      <c r="I58">
+        <v>0.75810599999999995</v>
+      </c>
+      <c r="J58">
+        <v>6.4265600000000006E-2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>35.621437999999998</v>
+      </c>
+      <c r="B59">
+        <v>5.7666100000000001E-3</v>
+      </c>
+      <c r="C59">
+        <v>28.4697</v>
+      </c>
+      <c r="D59">
+        <v>38.543799999999997</v>
+      </c>
+      <c r="E59">
+        <v>0.65490300000000001</v>
+      </c>
+      <c r="F59">
+        <v>4.9999700000000002</v>
+      </c>
+      <c r="G59">
+        <v>2.0605200000000001E-2</v>
+      </c>
+      <c r="H59">
+        <v>1.0580700000000001</v>
+      </c>
+      <c r="I59">
+        <v>0.76750099999999999</v>
+      </c>
+      <c r="J59">
+        <v>6.9393800000000005E-2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>36.246375</v>
+      </c>
+      <c r="B60">
+        <v>6.4042700000000001E-3</v>
+      </c>
+      <c r="C60">
+        <v>28.3507</v>
+      </c>
+      <c r="D60">
+        <v>38.377600000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.76392000000000004</v>
+      </c>
+      <c r="F60">
+        <v>4.9809700000000001</v>
+      </c>
+      <c r="G60">
+        <v>1.28177E-2</v>
+      </c>
+      <c r="H60">
+        <v>1.0523</v>
+      </c>
+      <c r="I60">
+        <v>0.77295000000000003</v>
+      </c>
+      <c r="J60">
+        <v>7.4560699999999994E-2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>36.871313000000001</v>
+      </c>
+      <c r="B61">
+        <v>7.07656E-3</v>
+      </c>
+      <c r="C61">
+        <v>28.244499999999999</v>
+      </c>
+      <c r="D61">
+        <v>38.219799999999999</v>
+      </c>
+      <c r="E61">
+        <v>0.88728399999999996</v>
+      </c>
+      <c r="F61">
+        <v>4.9625399999999997</v>
+      </c>
+      <c r="G61">
+        <v>9.0773199999999998E-3</v>
+      </c>
+      <c r="H61">
+        <v>1.0467900000000001</v>
+      </c>
+      <c r="I61">
+        <v>0.77619700000000003</v>
+      </c>
+      <c r="J61">
+        <v>7.9709799999999997E-2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>37.496250000000003</v>
+      </c>
+      <c r="B62">
+        <v>7.7772199999999996E-3</v>
+      </c>
+      <c r="C62">
+        <v>28.138400000000001</v>
+      </c>
+      <c r="D62">
+        <v>38.062100000000001</v>
+      </c>
+      <c r="E62">
+        <v>1.02474</v>
+      </c>
+      <c r="F62">
+        <v>4.9441100000000002</v>
+      </c>
+      <c r="G62">
+        <v>5.3605299999999996E-3</v>
+      </c>
+      <c r="H62">
+        <v>1.04128</v>
+      </c>
+      <c r="I62">
+        <v>0.77758700000000003</v>
+      </c>
+      <c r="J62">
+        <v>8.4816000000000003E-2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>38.121187999999997</v>
+      </c>
+      <c r="B63">
+        <v>8.4953600000000004E-3</v>
+      </c>
+      <c r="C63">
+        <v>28.038599999999999</v>
+      </c>
+      <c r="D63">
+        <v>37.912999999999997</v>
+      </c>
+      <c r="E63">
+        <v>1.17655</v>
+      </c>
+      <c r="F63">
+        <v>4.9257099999999996</v>
+      </c>
+      <c r="G63">
+        <v>3.7475400000000002E-3</v>
+      </c>
+      <c r="H63">
+        <v>1.03606</v>
+      </c>
+      <c r="I63">
+        <v>0.77800199999999997</v>
+      </c>
+      <c r="J63">
+        <v>8.9816199999999999E-2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>38.746124999999999</v>
+      </c>
+      <c r="B64">
+        <v>9.2259500000000001E-3</v>
+      </c>
+      <c r="C64">
+        <v>27.939</v>
+      </c>
+      <c r="D64">
+        <v>37.764000000000003</v>
+      </c>
+      <c r="E64">
+        <v>1.3433999999999999</v>
+      </c>
+      <c r="F64">
+        <v>4.9073200000000003</v>
+      </c>
+      <c r="G64">
+        <v>2.1472499999999999E-3</v>
+      </c>
+      <c r="H64">
+        <v>1.0308299999999999</v>
+      </c>
+      <c r="I64">
+        <v>0.77798500000000004</v>
+      </c>
+      <c r="J64">
+        <v>9.4517100000000007E-2</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>39.371062999999999</v>
+      </c>
+      <c r="B65">
+        <v>9.9636199999999994E-3</v>
+      </c>
+      <c r="C65">
+        <v>27.838100000000001</v>
+      </c>
+      <c r="D65">
+        <v>37.620899999999999</v>
+      </c>
+      <c r="E65">
+        <v>1.52596</v>
+      </c>
+      <c r="F65">
+        <v>4.88889</v>
+      </c>
+      <c r="G65">
+        <v>1.49401E-3</v>
+      </c>
+      <c r="H65">
+        <v>1.02582</v>
+      </c>
+      <c r="I65">
+        <v>0.77851099999999995</v>
+      </c>
+      <c r="J65">
+        <v>9.89791E-2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F3215F-9074-3F44-90CD-3953359D4265}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1">
+        <v>38000</v>
+      </c>
+      <c r="C1">
+        <v>38020</v>
+      </c>
+      <c r="D1">
+        <v>38040</v>
+      </c>
+      <c r="E1">
+        <v>38060</v>
+      </c>
+      <c r="F1">
+        <v>38080</v>
+      </c>
+      <c r="G1">
+        <v>38100</v>
+      </c>
+      <c r="H1">
+        <v>38120</v>
+      </c>
+      <c r="I1">
+        <v>38140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>49791</v>
+      </c>
+      <c r="C2">
+        <v>99950</v>
+      </c>
+      <c r="D2">
+        <v>99965</v>
+      </c>
+      <c r="E2">
+        <v>99972</v>
+      </c>
+      <c r="F2">
+        <v>99972</v>
+      </c>
+      <c r="G2">
+        <v>99975</v>
+      </c>
+      <c r="H2">
+        <v>99975</v>
+      </c>
+      <c r="I2">
+        <v>99974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>49798</v>
+      </c>
+      <c r="C3">
+        <v>70845</v>
+      </c>
+      <c r="D3">
+        <v>91714</v>
+      </c>
+      <c r="E3">
+        <v>99942</v>
+      </c>
+      <c r="F3">
+        <v>99948</v>
+      </c>
+      <c r="G3">
+        <v>99947</v>
+      </c>
+      <c r="H3">
+        <v>99950</v>
+      </c>
+      <c r="I3">
+        <v>99951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50003</v>
+      </c>
+      <c r="C4">
+        <v>60453</v>
+      </c>
+      <c r="D4">
+        <v>71327</v>
+      </c>
+      <c r="E4">
+        <v>82313</v>
+      </c>
+      <c r="F4">
+        <v>93193</v>
+      </c>
+      <c r="G4">
+        <v>99916</v>
+      </c>
+      <c r="H4">
+        <v>99921</v>
+      </c>
+      <c r="I4">
+        <v>99922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>49857</v>
+      </c>
+      <c r="C5">
+        <v>56631</v>
+      </c>
+      <c r="D5">
+        <v>63329</v>
+      </c>
+      <c r="E5">
+        <v>70030</v>
+      </c>
+      <c r="F5">
+        <v>76701</v>
+      </c>
+      <c r="G5">
+        <v>83494</v>
+      </c>
+      <c r="H5">
+        <v>90141</v>
+      </c>
+      <c r="I5">
+        <v>96676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>49544</v>
+      </c>
+      <c r="C6">
+        <v>54456</v>
+      </c>
+      <c r="D6">
+        <v>58636</v>
+      </c>
+      <c r="E6">
+        <v>63576</v>
+      </c>
+      <c r="F6">
+        <v>68150</v>
+      </c>
+      <c r="G6">
+        <v>69782</v>
+      </c>
+      <c r="H6">
+        <v>69774</v>
+      </c>
+      <c r="I6">
+        <v>69604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>49144</v>
+      </c>
+      <c r="C7">
+        <v>50829</v>
+      </c>
+      <c r="D7">
+        <v>50711</v>
+      </c>
+      <c r="E7">
+        <v>50657</v>
+      </c>
+      <c r="F7">
+        <v>50919</v>
+      </c>
+      <c r="G7">
+        <v>50576</v>
+      </c>
+      <c r="H7">
+        <v>50530</v>
+      </c>
+      <c r="I7">
+        <v>50617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>37859</v>
+      </c>
+      <c r="C8">
+        <v>37868</v>
+      </c>
+      <c r="D8">
+        <v>37821</v>
+      </c>
+      <c r="E8">
+        <v>37947</v>
+      </c>
+      <c r="F8">
+        <v>38067</v>
+      </c>
+      <c r="G8">
+        <v>37877</v>
+      </c>
+      <c r="H8">
+        <v>37647</v>
+      </c>
+      <c r="I8">
+        <v>37919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT(B1,",",B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8)</f>
+        <v>38000,49791,49798,50003,49857,49544,49144,37859</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:I9" si="0">_xlfn.CONCAT(C1,",",C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8)</f>
+        <v>38020,99950,70845,60453,56631,54456,50829,37868</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>38040,99965,91714,71327,63329,58636,50711,37821</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>38060,99972,99942,82313,70030,63576,50657,37947</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>38080,99972,99948,93193,76701,68150,50919,38067</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>38100,99975,99947,99916,83494,69782,50576,37877</v>
+      </c>
+      <c r="H9" t="str">
+        <f>_xlfn.CONCAT(H1,",",H2,",",H3,",",H4,",",H5,",",H6,",",H7,",",H8)</f>
+        <v>38120,99975,99950,99921,90141,69774,50530,37647</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>38140,99974,99951,99922,96676,69604,50617,37919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="L24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:D24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5826629-CCCD-6E42-8CAB-50D155E71577}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>86465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>75514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>60182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>29364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>21439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>13347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>9241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3746</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9C7AD9-F537-E041-9C51-7F1BF0ED7AF2}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>90177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>79094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>70663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>65179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>61319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>58781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>55795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>53559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>50317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>38164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>28998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33FCB25-61C9-F947-9ECB-36E936977C04}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>86465</v>
+      </c>
+      <c r="C2">
+        <v>90177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>75514</v>
+      </c>
+      <c r="C3">
+        <v>79094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>60182</v>
+      </c>
+      <c r="C4">
+        <v>70663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>41823</v>
+      </c>
+      <c r="C5">
+        <v>65179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>29364</v>
+      </c>
+      <c r="C6">
+        <v>61319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>21439</v>
+      </c>
+      <c r="C7">
+        <v>58781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>13347</v>
+      </c>
+      <c r="C8">
+        <v>55795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>9241</v>
+      </c>
+      <c r="C9">
+        <v>53559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6590</v>
+      </c>
+      <c r="C10">
+        <v>50317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4904</v>
+      </c>
+      <c r="C11">
+        <v>38164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3746</v>
+      </c>
+      <c r="C12">
+        <v>28998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12)</f>
+        <v>86465,75514,60182,41823,29364,21439,13347,9241,6590,4904,3746</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.CONCAT(C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8,",",C9,",",C10,",",C11,",",C12)</f>
+        <v>90177,79094,70663,65179,61319,58781,55795,53559,50317,38164,28998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FE774E-5097-BA4E-992D-EF939C349BE1}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>92969</v>
+      </c>
+      <c r="C2">
+        <v>277</v>
+      </c>
+      <c r="D2">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>79787</v>
+      </c>
+      <c r="C3">
+        <v>1808</v>
+      </c>
+      <c r="D3">
+        <v>9521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>62417</v>
+      </c>
+      <c r="C4">
+        <v>6239</v>
+      </c>
+      <c r="D4">
+        <v>14622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>41564</v>
+      </c>
+      <c r="C5">
+        <v>14335</v>
+      </c>
+      <c r="D5">
+        <v>17292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>29447</v>
+      </c>
+      <c r="C6">
+        <v>17227</v>
+      </c>
+      <c r="D6">
+        <v>17593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>21605</v>
+      </c>
+      <c r="C7">
+        <v>17713</v>
+      </c>
+      <c r="D7">
+        <v>17875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>13478</v>
+      </c>
+      <c r="C8">
+        <v>17868</v>
+      </c>
+      <c r="D8">
+        <v>17768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>9273</v>
+      </c>
+      <c r="C9">
+        <v>8234</v>
+      </c>
+      <c r="D9">
+        <v>17548</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6810</v>
+      </c>
+      <c r="C10">
+        <v>2337</v>
+      </c>
+      <c r="D10">
+        <v>17804</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5142</v>
+      </c>
+      <c r="C11">
+        <v>432</v>
+      </c>
+      <c r="D11">
+        <v>9851</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>4091</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>4324</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBF3CCF-5E11-9B4D-8123-0A17D22F1E82}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0.62493799999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1.2498750000000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1.8748119999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2.4997500000000001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3.1246879999999999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3.749625</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4.3745630000000002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>4.9995000000000003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>5.6244370000000004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>6.2493749999999997</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>6.8743119999999998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>7.49925</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>8.1241869999999992</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>8.7491249999999994</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>9.3740620000000003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>10.623937</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>11.248875</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>11.873811999999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>12.498749999999999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>13.123687</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>13.748625000000001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>14.373562</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>14.9985</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>15.623436999999999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>16.248374999999999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>16.873311999999999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>17.498249999999999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>18.123187999999999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>18.748125000000002</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>19.373062999999998</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>19.998000000000001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>20.622938000000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>21.247875000000001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>21.872813000000001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>22.49775</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.2606799999999999E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>23.122688</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.9411399999999998E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>23.747624999999999</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.94171E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>24.372563</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.3898299999999999E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>24.997499999999999</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6.4531900000000005E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>25.622437999999999</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9.4198500000000003E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>26.247375000000002</v>
+      </c>
+      <c r="B44">
+        <v>1.3583700000000001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>26.872312999999998</v>
+      </c>
+      <c r="B45">
+        <v>1.92695E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>27.497250000000001</v>
+      </c>
+      <c r="B46">
+        <v>2.6895400000000001E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>28.122188000000001</v>
+      </c>
+      <c r="B47">
+        <v>3.68761E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>28.747125</v>
+      </c>
+      <c r="B48">
+        <v>4.9657800000000002E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>29.372063000000001</v>
+      </c>
+      <c r="B49">
+        <v>6.58072E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>29.997</v>
+      </c>
+      <c r="B50">
+        <v>8.5999500000000001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>30.621938</v>
+      </c>
+      <c r="B51">
+        <v>1.11488E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>31.246874999999999</v>
+      </c>
+      <c r="B52">
+        <v>1.4319599999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>31.871813</v>
+      </c>
+      <c r="B53">
+        <v>1.8234200000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>32.496749999999999</v>
+      </c>
+      <c r="B54">
+        <v>2.3066499999999999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>33.121687999999999</v>
+      </c>
+      <c r="B55">
+        <v>2.8971299999999999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>33.746625000000002</v>
+      </c>
+      <c r="B56">
+        <v>3.6044800000000002E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>34.371563000000002</v>
+      </c>
+      <c r="B57">
+        <v>4.4416400000000002E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>34.996499999999997</v>
+      </c>
+      <c r="B58">
+        <v>5.4241200000000002E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>35.621437999999998</v>
+      </c>
+      <c r="B59">
+        <v>6.5834600000000002E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>36.246375</v>
+      </c>
+      <c r="B60">
+        <v>7.9275700000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>36.871313000000001</v>
+      </c>
+      <c r="B61">
+        <v>9.4722999999999995E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>37.496250000000003</v>
+      </c>
+      <c r="B62">
+        <v>1.12374E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>38.121187999999997</v>
+      </c>
+      <c r="B63">
+        <v>1.32371E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>38.746124999999999</v>
+      </c>
+      <c r="B64">
+        <v>1.5465E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>39.371062999999999</v>
+      </c>
+      <c r="B65">
+        <v>1.7917200000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8602E299-E2BC-0C47-B9CF-564DC00D4155}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.5299800000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4.7495250000000002</v>
+      </c>
+      <c r="B3">
+        <v>4.9590700000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>9.4990500000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.108407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>14.248575000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.138021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>18.998100000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.13996400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>23.747624999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.13417999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>28.497150000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.12914700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>33.246675000000003</v>
+      </c>
+      <c r="B9">
+        <v>0.12497800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>37.996200000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.12168900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>42.745725</v>
+      </c>
+      <c r="B11">
+        <v>0.118883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>47.495249999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.116371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>52.244774999999997</v>
+      </c>
+      <c r="B13">
+        <v>0.114409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>56.994300000000003</v>
+      </c>
+      <c r="B14">
+        <v>0.11291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>61.743825000000001</v>
+      </c>
+      <c r="B15">
+        <v>0.111737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>66.493350000000007</v>
+      </c>
+      <c r="B16">
+        <v>0.11065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>71.242874999999998</v>
+      </c>
+      <c r="B17">
+        <v>0.109553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>75.992400000000004</v>
+      </c>
+      <c r="B18">
+        <v>0.10879900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>80.741924999999995</v>
+      </c>
+      <c r="B19">
+        <v>0.108303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>85.49145</v>
+      </c>
+      <c r="B20">
+        <v>0.107699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>90.240975000000006</v>
+      </c>
+      <c r="B21">
+        <v>0.107184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>94.990499999999997</v>
+      </c>
+      <c r="B22">
+        <v>0.10704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>99.740025000000003</v>
+      </c>
+      <c r="B23">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>104.48954999999999</v>
+      </c>
+      <c r="B24">
+        <v>0.10600800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>109.239075</v>
+      </c>
+      <c r="B25">
+        <v>0.105866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>113.98860000000001</v>
+      </c>
+      <c r="B26">
+        <v>0.107143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>118.738125</v>
+      </c>
+      <c r="B27">
+        <v>0.105543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>123.48765</v>
+      </c>
+      <c r="B28">
+        <v>9.3028299999999994E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>128.23717500000001</v>
+      </c>
+      <c r="B29">
+        <v>6.7993899999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>132.98670000000001</v>
+      </c>
+      <c r="B30">
+        <v>3.9479399999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>137.73622499999999</v>
+      </c>
+      <c r="B31">
+        <v>1.8051500000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>142.48575</v>
+      </c>
+      <c r="B32">
+        <v>6.6462099999999996E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>147.235275</v>
+      </c>
+      <c r="B33">
+        <v>1.4636199999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>151.98480000000001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>156.73432500000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>161.48384999999999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>166.233375</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>170.9829</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>175.73242500000001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>180.48195000000001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>185.23147499999999</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>189.98099999999999</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>194.730525</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>199.48005000000001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>204.22957500000001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>208.97909999999999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>213.72862499999999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>218.47815</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>223.227675</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>227.97720000000001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>232.72672499999999</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>237.47624999999999</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>242.225775</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>246.9753</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>251.72482500000001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>256.47435000000002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>261.22387500000002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>265.97340000000003</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>270.72292499999998</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>275.47244999999998</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>280.22197499999999</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>284.97149999999999</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>289.721025</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>294.47055</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>299.22007500000001</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F85B42-2B4D-954F-8745-2807E3662623}">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>22.49775</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.2606799999999999E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>23.122688</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.9411399999999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>23.747624999999999</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.94171E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>24.372563</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.3898299999999999E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>24.997499999999999</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.4531900000000005E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>25.622437999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.4198500000000003E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>26.247375000000002</v>
+      </c>
+      <c r="B7">
+        <v>1.3583700000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>26.872312999999998</v>
+      </c>
+      <c r="B8">
+        <v>1.92695E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>27.497250000000001</v>
+      </c>
+      <c r="B9">
+        <v>2.6895400000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>28.122188000000001</v>
+      </c>
+      <c r="B10">
+        <v>3.68761E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>28.747125</v>
+      </c>
+      <c r="B11">
+        <v>4.9657800000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>29.372063000000001</v>
+      </c>
+      <c r="B12">
+        <v>6.58072E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>29.997</v>
+      </c>
+      <c r="B13">
+        <v>8.5999500000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>30.621938</v>
+      </c>
+      <c r="B14">
+        <v>1.11488E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>31.246874999999999</v>
+      </c>
+      <c r="B15">
+        <v>1.4319599999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>31.871813</v>
+      </c>
+      <c r="B16">
+        <v>1.8234200000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>32.496749999999999</v>
+      </c>
+      <c r="B17">
+        <v>2.3066499999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>33.121687999999999</v>
+      </c>
+      <c r="B18">
+        <v>2.8971299999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>33.746625000000002</v>
+      </c>
+      <c r="B19">
+        <v>3.6044800000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>34.371563000000002</v>
+      </c>
+      <c r="B20">
+        <v>4.4416400000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>34.996499999999997</v>
+      </c>
+      <c r="B21">
+        <v>5.4241200000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>35.621437999999998</v>
+      </c>
+      <c r="B22">
+        <v>6.5834600000000002E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>36.246375</v>
+      </c>
+      <c r="B23">
+        <v>7.9275700000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>36.871313000000001</v>
+      </c>
+      <c r="B24">
+        <v>9.4722999999999995E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>37.496250000000003</v>
+      </c>
+      <c r="B25">
+        <v>1.12374E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>38.121187999999997</v>
+      </c>
+      <c r="B26">
+        <v>1.32371E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>38.746124999999999</v>
+      </c>
+      <c r="B27">
+        <v>1.5465E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>39.371062999999999</v>
+      </c>
+      <c r="B28">
+        <v>1.7917200000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>44.749524999999998</v>
+      </c>
+      <c r="B29">
+        <v>4.9590700000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>49.499049999999997</v>
+      </c>
+      <c r="B30">
+        <v>0.108407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>54.248575000000002</v>
+      </c>
+      <c r="B31">
+        <v>0.138021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>58.998100000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.13996400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>63.747624999999999</v>
+      </c>
+      <c r="B33">
+        <v>0.13417999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>68.497150000000005</v>
+      </c>
+      <c r="B34">
+        <v>0.12914700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>73.24667500000001</v>
+      </c>
+      <c r="B35">
+        <v>0.12497800000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>77.996200000000002</v>
+      </c>
+      <c r="B36">
+        <v>0.12168900000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>82.745724999999993</v>
+      </c>
+      <c r="B37">
+        <v>0.118883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>87.495249999999999</v>
+      </c>
+      <c r="B38">
+        <v>0.116371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>92.244775000000004</v>
+      </c>
+      <c r="B39">
+        <v>0.114409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>96.99430000000001</v>
+      </c>
+      <c r="B40">
+        <v>0.11291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>101.743825</v>
+      </c>
+      <c r="B41">
+        <v>0.111737</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>106.49335000000001</v>
+      </c>
+      <c r="B42">
+        <v>0.11065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>111.242875</v>
+      </c>
+      <c r="B43">
+        <v>0.109553</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>115.9924</v>
+      </c>
+      <c r="B44">
+        <v>0.10879900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>120.74192499999999</v>
+      </c>
+      <c r="B45">
+        <v>0.108303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>125.49145</v>
+      </c>
+      <c r="B46">
+        <v>0.107699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>130.24097499999999</v>
+      </c>
+      <c r="B47">
+        <v>0.107184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>134.9905</v>
+      </c>
+      <c r="B48">
+        <v>0.10704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>139.740025</v>
+      </c>
+      <c r="B49">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>144.48955000000001</v>
+      </c>
+      <c r="B50">
+        <v>0.10600800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>149.23907500000001</v>
+      </c>
+      <c r="B51">
+        <v>0.105866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>153.98860000000002</v>
+      </c>
+      <c r="B52">
+        <v>0.107143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>158.738125</v>
+      </c>
+      <c r="B53">
+        <v>0.105543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>163.48765</v>
+      </c>
+      <c r="B54">
+        <v>9.3028299999999994E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>168.23717500000001</v>
+      </c>
+      <c r="B55">
+        <v>6.7993899999999996E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>172.98670000000001</v>
+      </c>
+      <c r="B56">
+        <v>3.9479399999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>177.73622499999999</v>
+      </c>
+      <c r="B57">
+        <v>1.8051500000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>182.48575</v>
+      </c>
+      <c r="B58">
+        <v>6.6462099999999996E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>187.235275</v>
+      </c>
+      <c r="B59">
+        <v>1.4636199999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/simu.xlsx
+++ b/simu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E10BE0-A1DE-9B4E-8985-3F09036B62B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2871083B-9B1F-E548-8B59-8FF30D4EE330}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33140" windowHeight="19900" activeTab="5" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="-33980" yWindow="460" windowWidth="31820" windowHeight="21140" firstSheet="3" activeTab="5" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="中间40umSi抽样注入效率分布" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="73">
   <si>
     <t>Depth (淀)</t>
   </si>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>304um de[1]+de[2]=E de</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40um de[1]+de[2]=E de[2]&gt;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +361,42 @@
   </si>
   <si>
     <t>142um部分穿透(17918) 304um部分穿透(13569)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304um de[1]+de[2]=E de[0]&lt;0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304um de[0]+de[1]+de[2]=E de[0]&gt;0 de[1]&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从142um穿出(3634)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从142um穿出(7664)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从142um穿出(8299)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从142um穿出(8103)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从142um穿出(8199)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,6 +1427,1333 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>D3rangeLISE!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$22$Al: 100.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>D3rangeLISE!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7495250000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4990500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.248575000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.998100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.747624999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.497150000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.246675000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.996200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.745725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.495249999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.244774999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.994300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.743825000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.493350000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.242874999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.992400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.741924999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.49145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.240975000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.990499999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.740025000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104.48954999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>109.239075</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113.98860000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>118.738125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.48765</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>128.23717500000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132.98670000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>137.73622499999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>142.48575</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147.235275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>151.98480000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>156.73432500000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>161.48384999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166.233375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>170.9829</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>175.73242500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180.48195000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>185.23147499999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>189.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>194.730525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>199.48005000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>204.22957500000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>208.97909999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>213.72862499999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>218.47815</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>223.227675</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>227.97720000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>232.72672499999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>237.47624999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>242.225775</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>246.9753</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>251.72482500000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>256.47435000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>261.22387500000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>265.97340000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>270.72292499999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>275.47244999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>280.22197499999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>284.97149999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>289.721025</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>294.47055</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>299.22007500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>D3rangeLISE!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1.5299800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9590700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.138021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13996400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12914700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12497800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12168900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.118883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.116371</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.114409</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.111737</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.109553</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10879900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.108303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.107699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.107184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10600800000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.105866</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.107143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.105543</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3028299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.7993899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9479399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8051500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6462099999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4636199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F25-374B-9746-6D97C02204B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2623952"/>
+        <c:axId val="2930352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2623952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2930352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2930352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2623952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>22.49775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.122688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.747624999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.372563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.997499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.622437999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.247375000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.872312999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.497250000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.122188000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.747125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.372063000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.621938</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.246874999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.871813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.496749999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.121687999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.746625000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.371563000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.996499999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.621437999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.246375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.871313000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.496250000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.121187999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.746124999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.371062999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.749524999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.499049999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.248575000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.998100000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.747624999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68.497150000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73.24667500000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77.996200000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.745724999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87.495249999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92.244775000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96.99430000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101.743825</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106.49335000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>111.242875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>115.9924</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>120.74192499999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>125.49145</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130.24097499999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>134.9905</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>139.740025</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>144.48955000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>149.23907500000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>153.98860000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>158.738125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>163.48765</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>168.23717500000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>172.98670000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>177.73622499999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>182.48575</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>187.235275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>1.2606799999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9411399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.94171E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3898299999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4531900000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4198500000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.3583700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.92695E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.6895400000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.68761E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>4.9657800000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>6.58072E-4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>8.5999500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.11488E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1.4319599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.8234200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2.3066499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>2.8971299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3.6044800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.4416400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>5.4241200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>6.5834600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>7.9275700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>9.4722999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>1.12374E-2</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.32371E-2</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>1.5465E-2</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>1.7917200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>4.9590700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.108407</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.138021</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.13996400000000001</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.13417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.12914700000000001</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.12497800000000001</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.12168900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.118883</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.116371</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.114409</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.11291</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.111737</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.11065</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.109553</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.10879900000000001</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.108303</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.107699</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.107184</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.10704</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.10680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.10600800000000001</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.105866</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.107143</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.105543</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>9.3028299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>6.7993899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>3.9479399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>1.8051500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>6.6462099999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>1.4636199999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BEE-B640-8666-D07000EF3A3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="3892608"/>
+        <c:axId val="3894288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="3892608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3894288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="3894288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3892608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5572,6 +6931,1552 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40um de[1]=E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>92969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6810</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D83B-294C-8F9F-CE849DDA4E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40um de[0]+de[1]=E de[0]&gt;0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D83B-294C-8F9F-CE849DDA4E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40um de[1]+de[2]=E de[2]&gt;0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9851</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D83B-294C-8F9F-CE849DDA4E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>96607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D83B-294C-8F9F-CE849DDA4E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1681420448"/>
+        <c:axId val="1681422080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1681420448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681422080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1681422080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681420448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>304um de[2]=E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>90188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6149-3F44-AB27-00F70989D14B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>304um de[1]+de[2]=E de[0]&lt;0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$C$19:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6149-3F44-AB27-00F70989D14B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>304um de[0]+de[1]+de[2]=E de[0]&gt;0 de[1]&gt;0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6149-3F44-AB27-00F70989D14B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SD 效率'!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'SD 效率'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SD 效率'!$E$19:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>95417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6149-3F44-AB27-00F70989D14B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1649013072"/>
+        <c:axId val="1645398608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1649013072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645398608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1645398608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649013072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -6246,7 +9151,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6741,1333 +9646,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>D3rangeLISE!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>$22$Al: 100.0%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>D3rangeLISE!$A$2:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7495250000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4990500000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.248575000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.998100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.747624999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.497150000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.246675000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.996200000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42.745725</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.495249999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52.244774999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56.994300000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>61.743825000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66.493350000000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71.242874999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>75.992400000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>80.741924999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>85.49145</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90.240975000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>94.990499999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>99.740025000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>104.48954999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>109.239075</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>113.98860000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>118.738125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>123.48765</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>128.23717500000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>132.98670000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>137.73622499999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>142.48575</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>147.235275</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>151.98480000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>156.73432500000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>161.48384999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>166.233375</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>170.9829</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>175.73242500000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>180.48195000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>185.23147499999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>189.98099999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>194.730525</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>199.48005000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>204.22957500000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>208.97909999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>213.72862499999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>218.47815</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>223.227675</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>227.97720000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>232.72672499999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>237.47624999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>242.225775</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>246.9753</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>251.72482500000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>256.47435000000002</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>261.22387500000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>265.97340000000003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>270.72292499999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>275.47244999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>280.22197499999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>284.97149999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>289.721025</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>294.47055</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>299.22007500000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>D3rangeLISE!$B$2:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>1.5299800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9590700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.108407</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.138021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13996400000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12914700000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12497800000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12168900000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.118883</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.116371</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.114409</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.11291</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.111737</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11065</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.109553</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.10879900000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.108303</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.107699</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.107184</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.10704</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.10680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.10600800000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.105866</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.107143</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.105543</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.3028299999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.7993899999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9479399999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8051500000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.6462099999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.4636199999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F25-374B-9746-6D97C02204B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2623952"/>
-        <c:axId val="2930352"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2623952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2930352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2930352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2623952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$1:$A$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>22.49775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.122688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.747624999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.372563</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.997499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.622437999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.247375000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.872312999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27.497250000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.122188000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.747125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.372063000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.621938</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31.246874999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.871813</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.496749999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.121687999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33.746625000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34.371563000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34.996499999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.621437999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.246375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>36.871313000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37.496250000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38.121187999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38.746124999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>39.371062999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44.749524999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>49.499049999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54.248575000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>58.998100000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63.747624999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68.497150000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73.24667500000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>77.996200000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>82.745724999999993</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87.495249999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>92.244775000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>96.99430000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>101.743825</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>106.49335000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>111.242875</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>115.9924</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>120.74192499999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>125.49145</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>130.24097499999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>134.9905</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>139.740025</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>144.48955000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>149.23907500000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>153.98860000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>158.738125</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>163.48765</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>168.23717500000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>172.98670000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>177.73622499999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>182.48575</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>187.235275</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$B$59</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>1.2606799999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9411399999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.94171E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3898299999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4531900000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.4198500000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.3583700000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1.92695E-4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>2.6895400000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>3.68761E-4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>4.9657800000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>6.58072E-4</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>8.5999500000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>1.11488E-3</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1.4319599999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1.8234200000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>2.3066499999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>2.8971299999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>3.6044800000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>4.4416400000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>5.4241200000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>6.5834600000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>7.9275700000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>9.4722999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>1.12374E-2</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>1.32371E-2</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>1.5465E-2</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>1.7917200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>4.9590700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>0.108407</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>0.138021</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>0.13996400000000001</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>0.13417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0.12914700000000001</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>0.12497800000000001</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>0.12168900000000001</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>0.118883</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0.116371</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>0.114409</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0.11291</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>0.111737</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>0.11065</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>0.109553</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>0.10879900000000001</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>0.108303</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>0.107699</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0.107184</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>0.10704</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0.10680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>0.10600800000000001</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>0.105866</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>0.107143</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>0.105543</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>9.3028299999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>6.7993899999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>3.9479399999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="General">
-                  <c:v>1.8051500000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>6.6462099999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>1.4636199999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BEE-B640-8666-D07000EF3A3C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="3892608"/>
-        <c:axId val="3894288"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="3892608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="3894288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="3894288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="3892608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8109,6 +9687,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8985,7 +10643,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9012,8 +10670,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9093,11 +10751,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9108,11 +10761,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9124,7 +10772,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9144,9 +10792,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9159,10 +10804,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9202,22 +10847,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9322,8 +10968,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9455,19 +11101,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9481,6 +11128,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9500,7 +11158,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10016,8 +11674,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10044,8 +11702,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10125,6 +11783,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10532,7 +12706,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11048,7 +13222,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11564,7 +13738,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12080,8 +14254,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12108,8 +14282,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12210,7 +14384,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12242,10 +14416,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12285,23 +14459,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12406,8 +14579,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12539,12 +14712,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -12555,28 +15018,229 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13649,6 +16313,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5066047B-6300-C744-AA8D-C77353CB294B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82169ABA-BB94-D148-84B9-8F9F5DC9A27B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13837,6 +16542,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106742</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1387592</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23519</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE43422-9337-0840-9B47-EB81178E3B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107009</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>151224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1434630</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94074</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830868BF-064A-F94C-A725-5E29D38C0700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -13910,7 +16692,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13951,7 +16733,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13972,47 +16754,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12217C40-8EBF-E74A-B9BE-0BA3CC0A1E2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82169ABA-BB94-D148-84B9-8F9F5DC9A27B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23995,21 +26736,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FE774E-5097-BA4E-992D-EF939C349BE1}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -24020,16 +26766,16 @@
         <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -24042,8 +26788,12 @@
       <c r="D2">
         <v>3361</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2">
+        <f>B2+C2+D2</f>
+        <v>96607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -24056,8 +26806,12 @@
       <c r="D3">
         <v>9521</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">B3+C3+D3</f>
+        <v>91116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -24070,8 +26824,12 @@
       <c r="D4">
         <v>14622</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>83278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -24084,8 +26842,12 @@
       <c r="D5">
         <v>17292</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>73191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2.5</v>
       </c>
@@ -24098,8 +26860,12 @@
       <c r="D6">
         <v>17593</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>64267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -24112,8 +26878,12 @@
       <c r="D7">
         <v>17875</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>57193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4</v>
       </c>
@@ -24126,8 +26896,12 @@
       <c r="D8">
         <v>17768</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>49114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
@@ -24140,11 +26914,15 @@
       <c r="D9">
         <v>17548</v>
       </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>35055</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>6</v>
       </c>
@@ -24157,11 +26935,15 @@
       <c r="D10">
         <v>17804</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>26951</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>7</v>
       </c>
@@ -24174,11 +26956,15 @@
       <c r="D11">
         <v>9851</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>15425</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>8</v>
       </c>
@@ -24191,13 +26977,261 @@
       <c r="D12">
         <v>4324</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8436</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>0.5</v>
+      </c>
+      <c r="B19">
+        <v>90188</v>
+      </c>
+      <c r="C19">
+        <v>5229</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>B19+C19+D19</f>
+        <v>95417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>79125</v>
+      </c>
+      <c r="C20">
+        <v>10241</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E29" si="1">B20+C20+D20</f>
+        <v>89366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21">
+        <v>70705</v>
+      </c>
+      <c r="C21">
+        <v>13347</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>84052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>65167</v>
+      </c>
+      <c r="C22">
+        <v>13352</v>
+      </c>
+      <c r="D22">
+        <v>1540</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>80059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2.5</v>
+      </c>
+      <c r="B23">
+        <v>61505</v>
+      </c>
+      <c r="C23">
+        <v>7067</v>
+      </c>
+      <c r="D23">
+        <v>5843</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>74415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>58905</v>
+      </c>
+      <c r="C24">
+        <v>3156</v>
+      </c>
+      <c r="D24">
+        <v>7360</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>69421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>55939</v>
+      </c>
+      <c r="C25">
+        <v>657</v>
+      </c>
+      <c r="D25">
+        <v>7942</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>64538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>53816</v>
+      </c>
+      <c r="C26">
+        <v>135</v>
+      </c>
+      <c r="D26">
+        <v>4507</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>58458</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>51083</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>560</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>51664</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>39312</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>39355</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>31164</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>31168</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/simu.xlsx
+++ b/simu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2871083B-9B1F-E548-8B59-8FF30D4EE330}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC07B99-5829-644D-8F3E-C883C50D261E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33980" yWindow="460" windowWidth="31820" windowHeight="21140" firstSheet="3" activeTab="5" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="31820" windowHeight="20540" firstSheet="3" activeTab="5" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="中间40umSi抽样注入效率分布" sheetId="1" r:id="rId1"/>
@@ -26739,7 +26739,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A18" sqref="A18:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/simu.xlsx
+++ b/simu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AppleData/CodeProject/G4Simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfs-imac-429/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC07B99-5829-644D-8F3E-C883C50D261E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B3AED-9870-784D-BF62-8EE4A960E335}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="31820" windowHeight="20540" firstSheet="3" activeTab="5" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="40100" windowHeight="42340" firstSheet="3" activeTab="5" xr2:uid="{1A453FB5-A4C3-514E-B980-867D8D06040C}"/>
   </bookViews>
   <sheets>
     <sheet name="中间40umSi抽样注入效率分布" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,10 @@
     <definedName name="rangd3" localSheetId="7">D3rangeLISE!$A$1:$B$65</definedName>
     <definedName name="ranged2" localSheetId="6">D2rangeLISE!$A$1:$B$65</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26579,7 +26574,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26717,9 +26712,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" t="str">
-        <f>_xlfn.CONCAT(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12)</f>
-        <v>86465,75514,60182,41823,29364,21439,13347,9241,6590,4904,3746</v>
+      <c r="B13" t="e">
+        <f ca="1">_xlfn.CONCAT(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C13" t="str">
         <f>_xlfn.CONCAT(C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8,",",C9,",",C10,",",C11,",",C12)</f>
@@ -26736,10 +26731,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FE774E-5097-BA4E-992D-EF939C349BE1}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F30"/>
+    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26986,8 +26981,25 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20</v>
+      <c r="A13" t="str">
+        <f>CONCATENATE(A2,",",A3,",",A4,",",A5,",",A6,",",A7,",",A8,",",A9,",",A10,",",A11,",",A12)</f>
+        <v>0.5,1,1.5,2,2.5,3,4,5,6,7,8</v>
+      </c>
+      <c r="B13" t="str">
+        <f>CONCATENATE(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12)</f>
+        <v>92969,79787,62417,41564,29447,21605,13478,9273,6810,5142,4091</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(C2,",",C3,",",C4,",",C5,",",C6,",",C7,",",C8,",",C9,",",C10,",",C11,",",C12)</f>
+        <v>277,1808,6239,14335,17227,17713,17868,8234,2337,432,21</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="C13:E13" si="1">CONCATENATE(D2,",",D3,",",D4,",",D5,",",D6,",",D7,",",D8,",",D9,",",D10,",",D11,",",D12)</f>
+        <v>3361,9521,14622,17292,17593,17875,17768,17548,17804,9851,4324</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>96607,91116,83278,73191,64267,57193,49114,35055,26951,15425,8436</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -27042,7 +27054,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E29" si="1">B20+C20+D20</f>
+        <f t="shared" ref="E20:E29" si="2">B20+C20+D20</f>
         <v>89366</v>
       </c>
     </row>
@@ -27060,7 +27072,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84052</v>
       </c>
     </row>
@@ -27078,7 +27090,7 @@
         <v>1540</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80059</v>
       </c>
     </row>
@@ -27096,7 +27108,7 @@
         <v>5843</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74415</v>
       </c>
     </row>
@@ -27114,7 +27126,7 @@
         <v>7360</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69421</v>
       </c>
     </row>
@@ -27132,7 +27144,7 @@
         <v>7942</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64538</v>
       </c>
     </row>
@@ -27150,7 +27162,7 @@
         <v>4507</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58458</v>
       </c>
       <c r="F26" t="s">
@@ -27171,7 +27183,7 @@
         <v>560</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51664</v>
       </c>
       <c r="F27" t="s">
@@ -27192,7 +27204,7 @@
         <v>38</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39355</v>
       </c>
       <c r="F28" t="s">
@@ -27213,7 +27225,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31168</v>
       </c>
       <c r="F29" t="s">
@@ -27228,9 +27240,32 @@
         <v>72</v>
       </c>
     </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="str">
+        <f>CONCATENATE(A19,",",A20,",",A21,",",A22,",",A23,",",A24,",",A25,",",A26,",",A27,",",A28,",",A29)</f>
+        <v>0.5,1,1.5,2,2.5,3,4,5,6,7,8</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ref="B31:E31" si="3">CONCATENATE(B19,",",B20,",",B21,",",B22,",",B23,",",B24,",",B25,",",B26,",",B27,",",B28,",",B29)</f>
+        <v>90188,79125,70705,65167,61505,58905,55939,53816,51083,39312,31164</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v>5229,10241,13347,13352,7067,3156,657,135,21,5,1</v>
+      </c>
+      <c r="D31" t="str">
+        <f>CONCATENATE(D19,",",D20,",",D21,",",D22,",",D23,",",D24,",",D25,",",D26,",",D27,",",D28,",",D29)</f>
+        <v>0,0,0,1540,5843,7360,7942,4507,560,38,3</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>95417,89366,84052,80059,74415,69421,64538,58458,51664,39355,31168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
